--- a/Code/Results/Cases/Case_5_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_0/res_bus/vm_pu.xlsx
@@ -421,37 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9768471022790002</v>
+        <v>1.040750042760369</v>
       </c>
       <c r="D2">
-        <v>0.9997449522283961</v>
+        <v>1.056307090297419</v>
       </c>
       <c r="E2">
-        <v>0.98558114501542</v>
+        <v>1.04939929271677</v>
       </c>
       <c r="F2">
-        <v>0.9737243234440657</v>
+        <v>1.060306858667386</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036388089202897</v>
+        <v>1.06599208475434</v>
       </c>
       <c r="J2">
-        <v>0.9997430750673356</v>
+        <v>1.061776677450256</v>
       </c>
       <c r="K2">
-        <v>1.011207841415347</v>
+        <v>1.067033993588867</v>
       </c>
       <c r="L2">
-        <v>0.9972450807388332</v>
+        <v>1.060210783874572</v>
       </c>
       <c r="M2">
-        <v>0.9855622774378153</v>
-      </c>
-      <c r="N2">
-        <v>1.005704707400593</v>
+        <v>1.070985409130383</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C3">
-        <v>0.9858122629377629</v>
+        <v>1.049338068410513</v>
       </c>
       <c r="D3">
-        <v>1.006335489131444</v>
+        <v>1.063270616477636</v>
       </c>
       <c r="E3">
-        <v>0.9933544205448395</v>
+        <v>1.056971400120865</v>
       </c>
       <c r="F3">
-        <v>0.9836735554625324</v>
+        <v>1.068068714625496</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039227574517774</v>
+        <v>1.06932790422894</v>
       </c>
       <c r="J3">
-        <v>1.006697317111833</v>
+        <v>1.068568478473085</v>
       </c>
       <c r="K3">
-        <v>1.016887942950281</v>
+        <v>1.073153219101343</v>
       </c>
       <c r="L3">
-        <v>1.004073044983911</v>
+        <v>1.066923742507223</v>
       </c>
       <c r="M3">
-        <v>0.9945196881962184</v>
-      </c>
-      <c r="N3">
-        <v>1.005704707400593</v>
+        <v>1.077898874003622</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9913974674751167</v>
+        <v>1.054711064131688</v>
       </c>
       <c r="D4">
-        <v>1.010443042320164</v>
+        <v>1.067629158956091</v>
       </c>
       <c r="E4">
-        <v>0.9982029249566148</v>
+        <v>1.061710160915532</v>
       </c>
       <c r="F4">
-        <v>0.9898783509785276</v>
+        <v>1.072929275925224</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040978541569194</v>
+        <v>1.071400167988648</v>
       </c>
       <c r="J4">
-        <v>1.011023816474243</v>
+        <v>1.072811739395193</v>
       </c>
       <c r="K4">
-        <v>1.02041704198402</v>
+        <v>1.076974529490103</v>
       </c>
       <c r="L4">
-        <v>1.008323087589778</v>
+        <v>1.071116757729771</v>
       </c>
       <c r="M4">
-        <v>1.000100490186757</v>
-      </c>
-      <c r="N4">
-        <v>1.005704707400593</v>
+        <v>1.08222052016931</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.993697395546339</v>
+        <v>1.056928572268352</v>
       </c>
       <c r="D5">
-        <v>1.012134718684822</v>
+        <v>1.069428336588522</v>
       </c>
       <c r="E5">
-        <v>1.00020077641483</v>
+        <v>1.063666157974428</v>
       </c>
       <c r="F5">
-        <v>0.9924350634206486</v>
+        <v>1.07493627010385</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041695154234914</v>
+        <v>1.072251821498309</v>
       </c>
       <c r="J5">
-        <v>1.012803921465184</v>
+        <v>1.074561503948898</v>
       </c>
       <c r="K5">
-        <v>1.021867877640029</v>
+        <v>1.078549855068316</v>
       </c>
       <c r="L5">
-        <v>1.010072239462909</v>
+        <v>1.072845560702025</v>
       </c>
       <c r="M5">
-        <v>1.00239873976942</v>
-      </c>
-      <c r="N5">
-        <v>1.005704707400593</v>
+        <v>1.084003162678573</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9940808404144899</v>
+        <v>1.057298555157795</v>
       </c>
       <c r="D6">
-        <v>1.012416764094631</v>
+        <v>1.06972854013463</v>
       </c>
       <c r="E6">
-        <v>1.000533931756239</v>
+        <v>1.063992520996571</v>
       </c>
       <c r="F6">
-        <v>0.9928614182764239</v>
+        <v>1.075271184311556</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041814365564346</v>
+        <v>1.072393703412716</v>
       </c>
       <c r="J6">
-        <v>1.013100610665186</v>
+        <v>1.07485335648013</v>
       </c>
       <c r="K6">
-        <v>1.022109616408884</v>
+        <v>1.078812585367622</v>
       </c>
       <c r="L6">
-        <v>1.010363799395952</v>
+        <v>1.073133902562109</v>
       </c>
       <c r="M6">
-        <v>1.002781913577086</v>
-      </c>
-      <c r="N6">
-        <v>1.005704707400593</v>
+        <v>1.084300531330457</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9914283837485309</v>
+        <v>1.054740853410868</v>
       </c>
       <c r="D7">
-        <v>1.010465781624767</v>
+        <v>1.067653327276375</v>
       </c>
       <c r="E7">
-        <v>0.9982297756622267</v>
+        <v>1.061736436266474</v>
       </c>
       <c r="F7">
-        <v>0.989912712407274</v>
+        <v>1.072956233485258</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04098819211053</v>
+        <v>1.071411623148278</v>
       </c>
       <c r="J7">
-        <v>1.011047751195556</v>
+        <v>1.072835251124048</v>
       </c>
       <c r="K7">
-        <v>1.02043655422557</v>
+        <v>1.07699569904824</v>
       </c>
       <c r="L7">
-        <v>1.008346604125496</v>
+        <v>1.071139988761619</v>
       </c>
       <c r="M7">
-        <v>1.000131383324588</v>
-      </c>
-      <c r="N7">
-        <v>1.005704707400593</v>
+        <v>1.082244471502437</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9799239020351933</v>
+        <v>1.043692258396434</v>
       </c>
       <c r="D8">
-        <v>1.002006310559901</v>
+        <v>1.058692290648267</v>
       </c>
       <c r="E8">
-        <v>0.9882475858745684</v>
+        <v>1.051993119434519</v>
       </c>
       <c r="F8">
-        <v>0.9771375184530394</v>
+        <v>1.062965031470449</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037366344703511</v>
+        <v>1.067138004191359</v>
       </c>
       <c r="J8">
-        <v>1.002130942098209</v>
+        <v>1.064104735551453</v>
       </c>
       <c r="K8">
-        <v>1.013159173507518</v>
+        <v>1.069131866489292</v>
       </c>
       <c r="L8">
-        <v>0.9995891400829848</v>
+        <v>1.062512022658759</v>
       </c>
       <c r="M8">
-        <v>0.988636348531769</v>
-      </c>
-      <c r="N8">
-        <v>1.005704707400593</v>
+        <v>1.073354657996009</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9578127456616327</v>
+        <v>1.022673837925939</v>
       </c>
       <c r="D9">
-        <v>0.9857715718831808</v>
+        <v>1.04166633464019</v>
       </c>
       <c r="E9">
-        <v>0.9691164914203463</v>
+        <v>1.03347327976869</v>
       </c>
       <c r="F9">
-        <v>0.9526336853051279</v>
+        <v>1.04399953900391</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030261558455318</v>
+        <v>1.05889023159557</v>
       </c>
       <c r="J9">
-        <v>0.9849485459086338</v>
+        <v>1.047450569627985</v>
       </c>
       <c r="K9">
-        <v>0.9990997922052599</v>
+        <v>1.05411773323095</v>
       </c>
       <c r="L9">
-        <v>0.9827313272602802</v>
+        <v>1.046045656256786</v>
       </c>
       <c r="M9">
-        <v>0.9665450273939039</v>
-      </c>
-      <c r="N9">
-        <v>1.005704707400593</v>
+        <v>1.056416926247168</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.941527747568178</v>
+        <v>1.007393956498632</v>
       </c>
       <c r="D10">
-        <v>0.9738474191436433</v>
+        <v>1.029312539817434</v>
       </c>
       <c r="E10">
-        <v>0.9550738391549577</v>
+        <v>1.020027480808726</v>
       </c>
       <c r="F10">
-        <v>0.934613049986359</v>
+        <v>1.030248530477057</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024938074243161</v>
+        <v>1.052818311524216</v>
       </c>
       <c r="J10">
-        <v>0.9722700013694363</v>
+        <v>1.035317255643765</v>
       </c>
       <c r="K10">
-        <v>0.9887054856764927</v>
+        <v>1.04317197565017</v>
       </c>
       <c r="L10">
-        <v>0.9703045608705235</v>
+        <v>1.034044309123512</v>
       </c>
       <c r="M10">
-        <v>0.9502725477485157</v>
-      </c>
-      <c r="N10">
-        <v>1.005704707400593</v>
+        <v>1.044092303027785</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9340227209488704</v>
+        <v>1.000415492629714</v>
       </c>
       <c r="D11">
-        <v>0.9683643923084551</v>
+        <v>1.023678513783244</v>
       </c>
       <c r="E11">
-        <v>0.9486163517107522</v>
+        <v>1.013892778387183</v>
       </c>
       <c r="F11">
-        <v>0.9263122784148351</v>
+        <v>1.023979162657736</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.022465240077034</v>
+        <v>1.050028353568427</v>
       </c>
       <c r="J11">
-        <v>0.9664233426737231</v>
+        <v>1.029770996832201</v>
       </c>
       <c r="K11">
-        <v>0.9839086301748875</v>
+        <v>1.038167289004505</v>
       </c>
       <c r="L11">
-        <v>0.9645770108442691</v>
+        <v>1.028557368369574</v>
       </c>
       <c r="M11">
-        <v>0.9427718225571065</v>
-      </c>
-      <c r="N11">
-        <v>1.005704707400593</v>
+        <v>1.038462605319536</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9311576480962397</v>
+        <v>0.9977626941508706</v>
       </c>
       <c r="D12">
-        <v>0.9662735260075251</v>
+        <v>1.021538245176152</v>
       </c>
       <c r="E12">
-        <v>0.9461535965426128</v>
+        <v>1.011561839985943</v>
       </c>
       <c r="F12">
-        <v>0.9231438094139831</v>
+        <v>1.021597767546808</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021518513931092</v>
+        <v>1.048965365015242</v>
       </c>
       <c r="J12">
-        <v>0.9641910025292435</v>
+        <v>1.02766204352857</v>
       </c>
       <c r="K12">
-        <v>0.9820767094304437</v>
+        <v>1.036264121214123</v>
       </c>
       <c r="L12">
-        <v>0.962390608387891</v>
+        <v>1.026470835735779</v>
       </c>
       <c r="M12">
-        <v>0.9399080645787338</v>
-      </c>
-      <c r="N12">
-        <v>1.005704707400593</v>
+        <v>1.036322564994149</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9317758857702129</v>
+        <v>0.9983345866401631</v>
       </c>
       <c r="D13">
-        <v>0.966724590315409</v>
+        <v>1.021999576218999</v>
       </c>
       <c r="E13">
-        <v>0.9466849063313364</v>
+        <v>1.012064292065974</v>
       </c>
       <c r="F13">
-        <v>0.9238275023507604</v>
+        <v>1.022111063546916</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021722920990316</v>
+        <v>1.049194631626913</v>
       </c>
       <c r="J13">
-        <v>0.9646727189321087</v>
+        <v>1.028116717829738</v>
       </c>
       <c r="K13">
-        <v>0.9824720356945894</v>
+        <v>1.036674435534314</v>
       </c>
       <c r="L13">
-        <v>0.9628623909893881</v>
+        <v>1.026920682099278</v>
       </c>
       <c r="M13">
-        <v>0.940526035247456</v>
-      </c>
-      <c r="N13">
-        <v>1.005704707400593</v>
+        <v>1.036783911869548</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C14">
-        <v>0.9337875315137134</v>
+        <v>1.000197489418379</v>
       </c>
       <c r="D14">
-        <v>0.9681927069186563</v>
+        <v>1.023502598592533</v>
       </c>
       <c r="E14">
-        <v>0.9484141372359939</v>
+        <v>1.013701201456605</v>
       </c>
       <c r="F14">
-        <v>0.9260521774732426</v>
+        <v>1.023783424230222</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.022387578270065</v>
+        <v>1.049941046762126</v>
       </c>
       <c r="J14">
-        <v>0.9662400992337103</v>
+        <v>1.029597697225677</v>
       </c>
       <c r="K14">
-        <v>0.9837582630086124</v>
+        <v>1.03801090214979</v>
       </c>
       <c r="L14">
-        <v>0.9643975288706439</v>
+        <v>1.02838591376947</v>
       </c>
       <c r="M14">
-        <v>0.9425367483733043</v>
-      </c>
-      <c r="N14">
-        <v>1.005704707400593</v>
+        <v>1.038286737986193</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9350164127630531</v>
+        <v>1.001337038664728</v>
       </c>
       <c r="D15">
-        <v>0.9690898711264696</v>
+        <v>1.02442220530423</v>
       </c>
       <c r="E15">
-        <v>0.9494708216763232</v>
+        <v>1.014702661227636</v>
       </c>
       <c r="F15">
-        <v>0.9274112370310591</v>
+        <v>1.024806667007556</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.022793258170541</v>
+        <v>1.050397320962275</v>
       </c>
       <c r="J15">
-        <v>0.9671975458814179</v>
+        <v>1.030503547951779</v>
       </c>
       <c r="K15">
-        <v>0.9845439153343388</v>
+        <v>1.038828342938572</v>
       </c>
       <c r="L15">
-        <v>0.9653353405599185</v>
+        <v>1.029282115134045</v>
       </c>
       <c r="M15">
-        <v>0.9437650134804817</v>
-      </c>
-      <c r="N15">
-        <v>1.005704707400593</v>
+        <v>1.039206036640756</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,40 +953,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9420155284631463</v>
+        <v>1.007848950768083</v>
       </c>
       <c r="D16">
-        <v>0.9742040708818528</v>
+        <v>1.029680062852198</v>
       </c>
       <c r="E16">
-        <v>0.9554938499446105</v>
+        <v>1.020427603634491</v>
       </c>
       <c r="F16">
-        <v>0.9351526155667048</v>
+        <v>1.030657532921385</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025098410545687</v>
+        <v>1.052999878413517</v>
       </c>
       <c r="J16">
-        <v>0.9726499385902098</v>
+        <v>1.03567878118821</v>
       </c>
       <c r="K16">
-        <v>0.9890171396485378</v>
+        <v>1.043498176950982</v>
       </c>
       <c r="L16">
-        <v>0.9706768203268613</v>
+        <v>1.034401948657613</v>
       </c>
       <c r="M16">
-        <v>0.9507600105800432</v>
-      </c>
-      <c r="N16">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.044459353117719</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +991,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9462784919325298</v>
+        <v>1.01183261405953</v>
       </c>
       <c r="D17">
-        <v>0.9773224487475642</v>
+        <v>1.03289881035003</v>
       </c>
       <c r="E17">
-        <v>0.9591661454474345</v>
+        <v>1.023931551657169</v>
       </c>
       <c r="F17">
-        <v>0.9398685903902179</v>
+        <v>1.034239759068082</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026497516705944</v>
+        <v>1.054587692088826</v>
       </c>
       <c r="J17">
-        <v>0.9759700102224768</v>
+        <v>1.038843555425463</v>
       </c>
       <c r="K17">
-        <v>0.9917401347229604</v>
+        <v>1.046353586825622</v>
       </c>
       <c r="L17">
-        <v>0.973930136130433</v>
+        <v>1.037532593720157</v>
       </c>
       <c r="M17">
-        <v>0.9550200203249666</v>
-      </c>
-      <c r="N17">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.047672942908047</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1029,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9487219583478879</v>
+        <v>1.014121745984888</v>
       </c>
       <c r="D18">
-        <v>0.9791109645246273</v>
+        <v>1.034749135308797</v>
       </c>
       <c r="E18">
-        <v>0.9612723429630141</v>
+        <v>1.025945582790927</v>
       </c>
       <c r="F18">
-        <v>0.9425721175033449</v>
+        <v>1.036299211012301</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027297638541313</v>
+        <v>1.055498514008977</v>
       </c>
       <c r="J18">
-        <v>0.9778726687843378</v>
+        <v>1.040661665365167</v>
       </c>
       <c r="K18">
-        <v>0.9933002823353116</v>
+        <v>1.047993850208945</v>
       </c>
       <c r="L18">
-        <v>0.9757948165544635</v>
+        <v>1.039331001950429</v>
       </c>
       <c r="M18">
-        <v>0.9574616652360305</v>
-      </c>
-      <c r="N18">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.049519468363245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1067,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9495480676548244</v>
+        <v>1.01489660835987</v>
       </c>
       <c r="D19">
-        <v>0.9797158180721345</v>
+        <v>1.035375581547692</v>
       </c>
       <c r="E19">
-        <v>0.9619846369492612</v>
+        <v>1.026627414032316</v>
       </c>
       <c r="F19">
-        <v>0.9434862247605306</v>
+        <v>1.036996490944381</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027567835703177</v>
+        <v>1.055806551884341</v>
       </c>
       <c r="J19">
-        <v>0.9785158711169696</v>
+        <v>1.041277006233613</v>
       </c>
       <c r="K19">
-        <v>0.9938276363141675</v>
+        <v>1.048548976850501</v>
       </c>
       <c r="L19">
-        <v>0.9764252271511917</v>
+        <v>1.039939658209608</v>
       </c>
       <c r="M19">
-        <v>0.9582871396651427</v>
-      </c>
-      <c r="N19">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.050144488529608</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1105,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.94582563001258</v>
+        <v>1.011408812373455</v>
       </c>
       <c r="D20">
-        <v>0.9769910597259058</v>
+        <v>1.032556305949529</v>
       </c>
       <c r="E20">
-        <v>0.95877589466735</v>
+        <v>1.023558725132531</v>
       </c>
       <c r="F20">
-        <v>0.9393675640082667</v>
+        <v>1.033858559005382</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026349075867093</v>
+        <v>1.054418936572379</v>
       </c>
       <c r="J20">
-        <v>0.9756173491526089</v>
+        <v>1.038506918545125</v>
       </c>
       <c r="K20">
-        <v>0.9914509302456445</v>
+        <v>1.046049869401579</v>
       </c>
       <c r="L20">
-        <v>0.9735845369050674</v>
+        <v>1.037199596946297</v>
       </c>
       <c r="M20">
-        <v>0.9545674862344413</v>
-      </c>
-      <c r="N20">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.047331074588964</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1143,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9331973712729275</v>
+        <v>0.9996506417746922</v>
       </c>
       <c r="D21">
-        <v>0.9677619357969969</v>
+        <v>1.02306135039974</v>
       </c>
       <c r="E21">
-        <v>0.9479067608064634</v>
+        <v>1.013220661077952</v>
       </c>
       <c r="F21">
-        <v>0.9253995120884102</v>
+        <v>1.02329245688822</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.022192658973393</v>
+        <v>1.049722004712036</v>
       </c>
       <c r="J21">
-        <v>0.9657802819696786</v>
+        <v>1.029162976777302</v>
       </c>
       <c r="K21">
-        <v>0.9833809368511386</v>
+        <v>1.037618604996822</v>
       </c>
       <c r="L21">
-        <v>0.9639471577654606</v>
+        <v>1.027955819396944</v>
       </c>
       <c r="M21">
-        <v>0.9419468716764414</v>
-      </c>
-      <c r="N21">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.037845586843616</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1181,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9248037994560608</v>
+        <v>0.9919027921653913</v>
       </c>
       <c r="D22">
-        <v>0.9616414662278738</v>
+        <v>1.016813485206545</v>
       </c>
       <c r="E22">
-        <v>0.9406968088868369</v>
+        <v>1.006415207463428</v>
       </c>
       <c r="F22">
-        <v>0.9161175149298459</v>
+        <v>1.016341067489393</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.019414212767848</v>
+        <v>1.046612966177515</v>
       </c>
       <c r="J22">
-        <v>0.959239952764914</v>
+        <v>1.023002540194534</v>
       </c>
       <c r="K22">
-        <v>0.9780131351573983</v>
+        <v>1.032059063482529</v>
       </c>
       <c r="L22">
-        <v>0.9575423075177123</v>
+        <v>1.021860640158473</v>
       </c>
       <c r="M22">
-        <v>0.9335563833829056</v>
-      </c>
-      <c r="N22">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.031595609664094</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1219,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9292999917230522</v>
+        <v>0.9960461034445784</v>
       </c>
       <c r="D23">
-        <v>0.9649185623374019</v>
+        <v>1.020153749179536</v>
       </c>
       <c r="E23">
-        <v>0.9445575171583069</v>
+        <v>1.01005386093015</v>
       </c>
       <c r="F23">
-        <v>0.9210895102445166</v>
+        <v>1.020057349247359</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.020903940362248</v>
+        <v>1.048276855734873</v>
       </c>
       <c r="J23">
-        <v>0.9627435249793256</v>
+        <v>1.026297219096368</v>
       </c>
       <c r="K23">
-        <v>0.9808887703346221</v>
+        <v>1.035032437280742</v>
       </c>
       <c r="L23">
-        <v>0.9609730485807181</v>
+        <v>1.025120485293243</v>
       </c>
       <c r="M23">
-        <v>0.9380511528204796</v>
-      </c>
-      <c r="N23">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.034937808219733</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1257,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9460303911715068</v>
+        <v>1.011600416177773</v>
       </c>
       <c r="D24">
-        <v>0.9771408935918497</v>
+        <v>1.032711152390788</v>
       </c>
       <c r="E24">
-        <v>0.9589523422446034</v>
+        <v>1.023727280976837</v>
       </c>
       <c r="F24">
-        <v>0.9395941014240322</v>
+        <v>1.034030899220736</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026416198970715</v>
+        <v>1.054495237092782</v>
       </c>
       <c r="J24">
-        <v>0.9757768057003348</v>
+        <v>1.038659115963263</v>
       </c>
       <c r="K24">
-        <v>0.9915816958097698</v>
+        <v>1.046187183936008</v>
       </c>
       <c r="L24">
-        <v>0.9737407995576645</v>
+        <v>1.03735014892707</v>
       </c>
       <c r="M24">
-        <v>0.9547720995579017</v>
-      </c>
-      <c r="N24">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.047485636047328</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9637756198163836</v>
+        <v>1.028312596174209</v>
       </c>
       <c r="D25">
-        <v>0.9901454619655411</v>
+        <v>1.046230713998516</v>
       </c>
       <c r="E25">
-        <v>0.9742685332583794</v>
+        <v>1.038439289263897</v>
       </c>
       <c r="F25">
-        <v>0.9592367537231085</v>
+        <v>1.049082013922911</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032193393635809</v>
+        <v>1.061116109758674</v>
       </c>
       <c r="J25">
-        <v>0.9895867519019624</v>
+        <v>1.05192330415791</v>
       </c>
       <c r="K25">
-        <v>1.002898707799916</v>
+        <v>1.058151374977148</v>
       </c>
       <c r="L25">
-        <v>0.9872798780514926</v>
+        <v>1.050468814057547</v>
       </c>
       <c r="M25">
-        <v>0.9725026424133306</v>
-      </c>
-      <c r="N25">
-        <v>1.005704707400593</v>
+        <v>1.060963345104771</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_0/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.040750042760369</v>
+        <v>1.030406119515806</v>
       </c>
       <c r="D2">
-        <v>1.056307090297419</v>
+        <v>1.045680826850436</v>
       </c>
       <c r="E2">
-        <v>1.04939929271677</v>
+        <v>1.041774028476898</v>
       </c>
       <c r="F2">
-        <v>1.060306858667386</v>
+        <v>1.052155075999813</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.06599208475434</v>
+        <v>1.054474021894451</v>
       </c>
       <c r="J2">
-        <v>1.061776677450256</v>
+        <v>1.051713923360276</v>
       </c>
       <c r="K2">
-        <v>1.067033993588867</v>
+        <v>1.056538428053453</v>
       </c>
       <c r="L2">
-        <v>1.060210783874572</v>
+        <v>1.052680517315818</v>
       </c>
       <c r="M2">
-        <v>1.070985409130383</v>
+        <v>1.062932656214651</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.049338068410513</v>
+        <v>1.038348646793926</v>
       </c>
       <c r="D3">
-        <v>1.063270616477636</v>
+        <v>1.051886967312825</v>
       </c>
       <c r="E3">
-        <v>1.056971400120865</v>
+        <v>1.048499774576899</v>
       </c>
       <c r="F3">
-        <v>1.068068714625496</v>
+        <v>1.058918410574182</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.06932790422894</v>
+        <v>1.05685447895794</v>
       </c>
       <c r="J3">
-        <v>1.068568478473085</v>
+        <v>1.057845809434078</v>
       </c>
       <c r="K3">
-        <v>1.073153219101343</v>
+        <v>1.061896350808461</v>
       </c>
       <c r="L3">
-        <v>1.066923742507223</v>
+        <v>1.058547536812585</v>
       </c>
       <c r="M3">
-        <v>1.077898874003622</v>
+        <v>1.068849088297344</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.054711064131688</v>
+        <v>1.043335328664685</v>
       </c>
       <c r="D4">
-        <v>1.067629158956091</v>
+        <v>1.055785339413501</v>
       </c>
       <c r="E4">
-        <v>1.061710160915532</v>
+        <v>1.052727751074096</v>
       </c>
       <c r="F4">
-        <v>1.072929275925224</v>
+        <v>1.06316974732038</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.071400167988648</v>
+        <v>1.05833644926892</v>
       </c>
       <c r="J4">
-        <v>1.072811739395193</v>
+        <v>1.061691916302248</v>
       </c>
       <c r="K4">
-        <v>1.076974529490103</v>
+        <v>1.06525406336177</v>
       </c>
       <c r="L4">
-        <v>1.071116757729771</v>
+        <v>1.06222887139292</v>
       </c>
       <c r="M4">
-        <v>1.08222052016931</v>
+        <v>1.07256116883046</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.056928572268352</v>
+        <v>1.045397272894434</v>
       </c>
       <c r="D5">
-        <v>1.069428336588522</v>
+        <v>1.05739761443271</v>
       </c>
       <c r="E5">
-        <v>1.063666157974428</v>
+        <v>1.054477138083048</v>
       </c>
       <c r="F5">
-        <v>1.07493627010385</v>
+        <v>1.064928725230639</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.072251821498309</v>
+        <v>1.058946142220136</v>
       </c>
       <c r="J5">
-        <v>1.074561503948898</v>
+        <v>1.063281268488139</v>
       </c>
       <c r="K5">
-        <v>1.078549855068316</v>
+        <v>1.06664086133243</v>
       </c>
       <c r="L5">
-        <v>1.072845560702025</v>
+        <v>1.063750445773571</v>
       </c>
       <c r="M5">
-        <v>1.084003162678573</v>
+        <v>1.074095379571494</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.057298555157795</v>
+        <v>1.045741519354406</v>
       </c>
       <c r="D6">
-        <v>1.06972854013463</v>
+        <v>1.057666804185399</v>
       </c>
       <c r="E6">
-        <v>1.063992520996571</v>
+        <v>1.054769267870191</v>
       </c>
       <c r="F6">
-        <v>1.075271184311556</v>
+        <v>1.065222451920156</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.072393703412716</v>
+        <v>1.0590477484576</v>
       </c>
       <c r="J6">
-        <v>1.07485335648013</v>
+        <v>1.063546555262165</v>
       </c>
       <c r="K6">
-        <v>1.078812585367622</v>
+        <v>1.066872294982868</v>
       </c>
       <c r="L6">
-        <v>1.073133902562109</v>
+        <v>1.064004437379887</v>
       </c>
       <c r="M6">
-        <v>1.084300531330457</v>
+        <v>1.074351476047473</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.054740853410868</v>
+        <v>1.04336301322273</v>
       </c>
       <c r="D7">
-        <v>1.067653327276375</v>
+        <v>1.055806985330617</v>
       </c>
       <c r="E7">
-        <v>1.061736436266474</v>
+        <v>1.052751234636865</v>
       </c>
       <c r="F7">
-        <v>1.072956233485258</v>
+        <v>1.063193359939038</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.071411623148278</v>
+        <v>1.058344647575727</v>
       </c>
       <c r="J7">
-        <v>1.072835251124048</v>
+        <v>1.061713259584735</v>
       </c>
       <c r="K7">
-        <v>1.07699569904824</v>
+        <v>1.065272689490849</v>
       </c>
       <c r="L7">
-        <v>1.071139988761619</v>
+        <v>1.062249303274934</v>
       </c>
       <c r="M7">
-        <v>1.082244471502437</v>
+        <v>1.072581770690661</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.043692258396434</v>
+        <v>1.033123261353234</v>
       </c>
       <c r="D8">
-        <v>1.058692290648267</v>
+        <v>1.047803482304921</v>
       </c>
       <c r="E8">
-        <v>1.051993119434519</v>
+        <v>1.044073738725422</v>
       </c>
       <c r="F8">
-        <v>1.062965031470449</v>
+        <v>1.054467688900599</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.067138004191359</v>
+        <v>1.055290992230197</v>
       </c>
       <c r="J8">
-        <v>1.064104735551453</v>
+        <v>1.053812395184148</v>
       </c>
       <c r="K8">
-        <v>1.069131866489292</v>
+        <v>1.058372636437358</v>
       </c>
       <c r="L8">
-        <v>1.062512022658759</v>
+        <v>1.054688049322274</v>
       </c>
       <c r="M8">
-        <v>1.073354657996009</v>
+        <v>1.064957144360838</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.022673837925939</v>
+        <v>1.013805775448726</v>
       </c>
       <c r="D9">
-        <v>1.04166633464019</v>
+        <v>1.03272582838449</v>
       </c>
       <c r="E9">
-        <v>1.03347327976869</v>
+        <v>1.027751255236498</v>
       </c>
       <c r="F9">
-        <v>1.04399953900391</v>
+        <v>1.03805293783587</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.05889023159557</v>
+        <v>1.049431281890944</v>
       </c>
       <c r="J9">
-        <v>1.047450569627985</v>
+        <v>1.038880261638658</v>
       </c>
       <c r="K9">
-        <v>1.05411773323095</v>
+        <v>1.045309363211514</v>
       </c>
       <c r="L9">
-        <v>1.046045656256786</v>
+        <v>1.040409579730671</v>
       </c>
       <c r="M9">
-        <v>1.056416926247168</v>
+        <v>1.050557392514843</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.007393956498632</v>
+        <v>0.9999056134234494</v>
       </c>
       <c r="D10">
-        <v>1.029312539817434</v>
+        <v>1.021900255807573</v>
       </c>
       <c r="E10">
-        <v>1.020027480808726</v>
+        <v>1.016047044607423</v>
       </c>
       <c r="F10">
-        <v>1.030248530477057</v>
+        <v>1.026282278606956</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.052818311524216</v>
+        <v>1.045152515950617</v>
       </c>
       <c r="J10">
-        <v>1.035317255643765</v>
+        <v>1.02812297668767</v>
       </c>
       <c r="K10">
-        <v>1.04317197565017</v>
+        <v>1.035885040985602</v>
       </c>
       <c r="L10">
-        <v>1.034044309123512</v>
+        <v>1.030132485744598</v>
       </c>
       <c r="M10">
-        <v>1.044092303027785</v>
+        <v>1.040192676994935</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.000415492629714</v>
+        <v>0.9936005603905761</v>
       </c>
       <c r="D11">
-        <v>1.023678513783244</v>
+        <v>1.016997897751228</v>
       </c>
       <c r="E11">
-        <v>1.013892778387183</v>
+        <v>1.010749926686671</v>
       </c>
       <c r="F11">
-        <v>1.023979162657736</v>
+        <v>1.020955236404387</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050028353568427</v>
+        <v>1.043198195086547</v>
       </c>
       <c r="J11">
-        <v>1.029770996832201</v>
+        <v>1.023242008313943</v>
       </c>
       <c r="K11">
-        <v>1.038167289004505</v>
+        <v>1.031606223399114</v>
       </c>
       <c r="L11">
-        <v>1.028557368369574</v>
+        <v>1.025471923193314</v>
       </c>
       <c r="M11">
-        <v>1.038462605319536</v>
+        <v>1.035492499718111</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9977626941508706</v>
+        <v>0.9912112306802279</v>
       </c>
       <c r="D12">
-        <v>1.021538245176152</v>
+        <v>1.015141574927508</v>
       </c>
       <c r="E12">
-        <v>1.011561839985943</v>
+        <v>1.008744550404418</v>
       </c>
       <c r="F12">
-        <v>1.021597767546808</v>
+        <v>1.018938575000086</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048965365015242</v>
+        <v>1.042455696345866</v>
       </c>
       <c r="J12">
-        <v>1.02766204352857</v>
+        <v>1.02139226140775</v>
       </c>
       <c r="K12">
-        <v>1.036264121214123</v>
+        <v>1.029984324120108</v>
       </c>
       <c r="L12">
-        <v>1.026470835735779</v>
+        <v>1.02370611455511</v>
       </c>
       <c r="M12">
-        <v>1.036322564994149</v>
+        <v>1.033711719061556</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9983345866401631</v>
+        <v>0.991725969434947</v>
       </c>
       <c r="D13">
-        <v>1.021999576218999</v>
+        <v>1.015541417327102</v>
       </c>
       <c r="E13">
-        <v>1.012064292065974</v>
+        <v>1.009176479693533</v>
       </c>
       <c r="F13">
-        <v>1.022111063546916</v>
+        <v>1.019372932609168</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049194631626913</v>
+        <v>1.042615738062411</v>
       </c>
       <c r="J13">
-        <v>1.028116717829738</v>
+        <v>1.021790757717999</v>
       </c>
       <c r="K13">
-        <v>1.036674435534314</v>
+        <v>1.030333749504903</v>
       </c>
       <c r="L13">
-        <v>1.026920682099278</v>
+        <v>1.024086508722493</v>
       </c>
       <c r="M13">
-        <v>1.036783911869548</v>
+        <v>1.034095336516164</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.000197489418379</v>
+        <v>0.9934040509877176</v>
       </c>
       <c r="D14">
-        <v>1.023502598592533</v>
+        <v>1.016845194447802</v>
       </c>
       <c r="E14">
-        <v>1.013701201456605</v>
+        <v>1.010584953705796</v>
       </c>
       <c r="F14">
-        <v>1.023783424230222</v>
+        <v>1.020789334034729</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049941046762126</v>
+        <v>1.043137166314974</v>
       </c>
       <c r="J14">
-        <v>1.029597697225677</v>
+        <v>1.023089877403527</v>
       </c>
       <c r="K14">
-        <v>1.03801090214979</v>
+        <v>1.031472838422477</v>
       </c>
       <c r="L14">
-        <v>1.02838591376947</v>
+        <v>1.02532668719647</v>
       </c>
       <c r="M14">
-        <v>1.038286737986193</v>
+        <v>1.035346031412818</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.001337038664728</v>
+        <v>0.9944315571431902</v>
       </c>
       <c r="D15">
-        <v>1.02442220530423</v>
+        <v>1.017643708093502</v>
       </c>
       <c r="E15">
-        <v>1.014702661227636</v>
+        <v>1.011447644783466</v>
       </c>
       <c r="F15">
-        <v>1.024806667007556</v>
+        <v>1.021656887056203</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050397320962275</v>
+        <v>1.043456196500687</v>
       </c>
       <c r="J15">
-        <v>1.030503547951779</v>
+        <v>1.023885335427644</v>
       </c>
       <c r="K15">
-        <v>1.038828342938572</v>
+        <v>1.032170264293954</v>
       </c>
       <c r="L15">
-        <v>1.029282115134045</v>
+        <v>1.026086110163522</v>
       </c>
       <c r="M15">
-        <v>1.039206036640756</v>
+        <v>1.036111899620728</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.007848950768083</v>
+        <v>1.000317671092864</v>
       </c>
       <c r="D16">
-        <v>1.029680062852198</v>
+        <v>1.022220828450815</v>
       </c>
       <c r="E16">
-        <v>1.020427603634491</v>
+        <v>1.01639349235358</v>
       </c>
       <c r="F16">
-        <v>1.030657532921385</v>
+        <v>1.026630688299126</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.052999878413517</v>
+        <v>1.045279969226987</v>
       </c>
       <c r="J16">
-        <v>1.03567878118821</v>
+        <v>1.028441945980565</v>
       </c>
       <c r="K16">
-        <v>1.043498176950982</v>
+        <v>1.036164608981684</v>
       </c>
       <c r="L16">
-        <v>1.034401948657613</v>
+        <v>1.030437106360194</v>
       </c>
       <c r="M16">
-        <v>1.044459353117719</v>
+        <v>1.040499890939731</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.01183261405953</v>
+        <v>1.003930361880621</v>
       </c>
       <c r="D17">
-        <v>1.03289881035003</v>
+        <v>1.025032365094807</v>
       </c>
       <c r="E17">
-        <v>1.023931551657169</v>
+        <v>1.019432311218463</v>
       </c>
       <c r="F17">
-        <v>1.034239759068082</v>
+        <v>1.029686735210162</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054587692088826</v>
+        <v>1.046395901643622</v>
       </c>
       <c r="J17">
-        <v>1.038843555425463</v>
+        <v>1.031238335470656</v>
       </c>
       <c r="K17">
-        <v>1.046353586825622</v>
+        <v>1.038615274477052</v>
       </c>
       <c r="L17">
-        <v>1.037532593720157</v>
+        <v>1.033107989592774</v>
       </c>
       <c r="M17">
-        <v>1.047672942908047</v>
+        <v>1.043193527914059</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.014121745984888</v>
+        <v>1.006010294043179</v>
       </c>
       <c r="D18">
-        <v>1.034749135308797</v>
+        <v>1.026651790243972</v>
       </c>
       <c r="E18">
-        <v>1.025945582790927</v>
+        <v>1.021182946484431</v>
       </c>
       <c r="F18">
-        <v>1.036299211012301</v>
+        <v>1.031447307913627</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.055498514008977</v>
+        <v>1.04703710205329</v>
       </c>
       <c r="J18">
-        <v>1.040661665365167</v>
+        <v>1.032848146969601</v>
       </c>
       <c r="K18">
-        <v>1.047993850208945</v>
+        <v>1.040025808080115</v>
       </c>
       <c r="L18">
-        <v>1.039331001950429</v>
+        <v>1.034645785005704</v>
       </c>
       <c r="M18">
-        <v>1.049519468363245</v>
+        <v>1.044744434074771</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.01489660835987</v>
+        <v>1.006714991112786</v>
       </c>
       <c r="D19">
-        <v>1.035375581547692</v>
+        <v>1.027200583153215</v>
       </c>
       <c r="E19">
-        <v>1.026627414032316</v>
+        <v>1.021776255695644</v>
       </c>
       <c r="F19">
-        <v>1.036996490944381</v>
+        <v>1.032043986568634</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.055806551884341</v>
+        <v>1.047254125951772</v>
       </c>
       <c r="J19">
-        <v>1.041277006233613</v>
+        <v>1.033393533708812</v>
       </c>
       <c r="K19">
-        <v>1.048548976850501</v>
+        <v>1.040503637283787</v>
       </c>
       <c r="L19">
-        <v>1.039939658209608</v>
+        <v>1.035166812427781</v>
       </c>
       <c r="M19">
-        <v>1.050144488529608</v>
+        <v>1.045269904771519</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.011408812373455</v>
+        <v>1.003545606570669</v>
       </c>
       <c r="D20">
-        <v>1.032556305949529</v>
+        <v>1.024732854929237</v>
       </c>
       <c r="E20">
-        <v>1.023558725132531</v>
+        <v>1.019108558319167</v>
       </c>
       <c r="F20">
-        <v>1.033858559005382</v>
+        <v>1.029361145408298</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054418936572379</v>
+        <v>1.046277185336645</v>
       </c>
       <c r="J20">
-        <v>1.038506918545125</v>
+        <v>1.030940531923618</v>
       </c>
       <c r="K20">
-        <v>1.046049869401579</v>
+        <v>1.038354315052213</v>
       </c>
       <c r="L20">
-        <v>1.037199596946297</v>
+        <v>1.032823527315988</v>
       </c>
       <c r="M20">
-        <v>1.047331074588964</v>
+        <v>1.042906641084436</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9996506417746922</v>
+        <v>0.9929112429957899</v>
       </c>
       <c r="D21">
-        <v>1.02306135039974</v>
+        <v>1.01646226791657</v>
       </c>
       <c r="E21">
-        <v>1.013220661077952</v>
+        <v>1.010171265799694</v>
       </c>
       <c r="F21">
-        <v>1.02329245688822</v>
+        <v>1.020373316361106</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049722004712036</v>
+        <v>1.04298408775392</v>
       </c>
       <c r="J21">
-        <v>1.029162976777302</v>
+        <v>1.022708361410982</v>
       </c>
       <c r="K21">
-        <v>1.037618604996822</v>
+        <v>1.031138328290082</v>
       </c>
       <c r="L21">
-        <v>1.027955819396944</v>
+        <v>1.024962469079665</v>
       </c>
       <c r="M21">
-        <v>1.037845586843616</v>
+        <v>1.034978723622204</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9919027921653913</v>
+        <v>0.9859484029625706</v>
       </c>
       <c r="D22">
-        <v>1.016813485206545</v>
+        <v>1.011055730119097</v>
       </c>
       <c r="E22">
-        <v>1.006415207463428</v>
+        <v>1.004331365074347</v>
       </c>
       <c r="F22">
-        <v>1.016341067489393</v>
+        <v>1.014500660961746</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046612966177515</v>
+        <v>1.040816888443999</v>
       </c>
       <c r="J22">
-        <v>1.023002540194534</v>
+        <v>1.017317968373869</v>
       </c>
       <c r="K22">
-        <v>1.032059063482529</v>
+        <v>1.026411306993684</v>
       </c>
       <c r="L22">
-        <v>1.021860640158473</v>
+        <v>1.019817502355255</v>
       </c>
       <c r="M22">
-        <v>1.031595609664094</v>
+        <v>1.029790228120186</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9960461034445784</v>
+        <v>0.9896673749832164</v>
       </c>
       <c r="D23">
-        <v>1.020153749179536</v>
+        <v>1.013942559988529</v>
       </c>
       <c r="E23">
-        <v>1.01005386093015</v>
+        <v>1.007449374653222</v>
       </c>
       <c r="F23">
-        <v>1.020057349247359</v>
+        <v>1.017636125894468</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048276855734873</v>
+        <v>1.04197541546985</v>
       </c>
       <c r="J23">
-        <v>1.026297219096368</v>
+        <v>1.020197052052556</v>
       </c>
       <c r="K23">
-        <v>1.035032437280742</v>
+        <v>1.028936245922159</v>
       </c>
       <c r="L23">
-        <v>1.025120485293243</v>
+        <v>1.022565261781494</v>
       </c>
       <c r="M23">
-        <v>1.034937808219733</v>
+        <v>1.032561206297135</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.011600416177773</v>
+        <v>1.003719544943302</v>
       </c>
       <c r="D24">
-        <v>1.032711152390788</v>
+        <v>1.024868253792469</v>
       </c>
       <c r="E24">
-        <v>1.023727280976837</v>
+        <v>1.019254915612126</v>
       </c>
       <c r="F24">
-        <v>1.034030899220736</v>
+        <v>1.029508333062921</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.054495237092782</v>
+        <v>1.046330858016827</v>
       </c>
       <c r="J24">
-        <v>1.038659115963263</v>
+        <v>1.031075162034929</v>
       </c>
       <c r="K24">
-        <v>1.046187183936008</v>
+        <v>1.03847228957666</v>
       </c>
       <c r="L24">
-        <v>1.03735014892707</v>
+        <v>1.032952125419784</v>
       </c>
       <c r="M24">
-        <v>1.047485636047328</v>
+        <v>1.04303633523679</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.028312596174209</v>
+        <v>1.01896658529433</v>
       </c>
       <c r="D25">
-        <v>1.046230713998516</v>
+        <v>1.036750615649222</v>
       </c>
       <c r="E25">
-        <v>1.038439289263897</v>
+        <v>1.032105621433918</v>
       </c>
       <c r="F25">
-        <v>1.049082013922911</v>
+        <v>1.042432031379493</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.061116109758674</v>
+        <v>1.051007726020582</v>
       </c>
       <c r="J25">
-        <v>1.05192330415791</v>
+        <v>1.042872083826578</v>
       </c>
       <c r="K25">
-        <v>1.058151374977148</v>
+        <v>1.048804007784112</v>
       </c>
       <c r="L25">
-        <v>1.050468814057547</v>
+        <v>1.044225174884759</v>
       </c>
       <c r="M25">
-        <v>1.060963345104771</v>
+        <v>1.054405511916884</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_0/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.030406119515806</v>
+        <v>1.077679419419598</v>
       </c>
       <c r="D2">
-        <v>1.045680826850436</v>
+        <v>1.077051058944554</v>
       </c>
       <c r="E2">
-        <v>1.041774028476898</v>
+        <v>1.080426458009901</v>
       </c>
       <c r="F2">
-        <v>1.052155075999813</v>
+        <v>1.089170678772191</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054474021894451</v>
+        <v>1.050287125591677</v>
       </c>
       <c r="J2">
-        <v>1.051713923360276</v>
+        <v>1.082572676276498</v>
       </c>
       <c r="K2">
-        <v>1.056538428053453</v>
+        <v>1.079733377003638</v>
       </c>
       <c r="L2">
-        <v>1.052680517315818</v>
+        <v>1.083099922956954</v>
       </c>
       <c r="M2">
-        <v>1.062932656214651</v>
+        <v>1.091821484445301</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.038348646793926</v>
+        <v>1.079274077384808</v>
       </c>
       <c r="D3">
-        <v>1.051886967312825</v>
+        <v>1.078302463502725</v>
       </c>
       <c r="E3">
-        <v>1.048499774576899</v>
+        <v>1.081814909288513</v>
       </c>
       <c r="F3">
-        <v>1.058918410574182</v>
+        <v>1.090561679395765</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05685447895794</v>
+        <v>1.050673018726119</v>
       </c>
       <c r="J3">
-        <v>1.057845809434078</v>
+        <v>1.083824640796738</v>
       </c>
       <c r="K3">
-        <v>1.061896350808461</v>
+        <v>1.080801342285465</v>
       </c>
       <c r="L3">
-        <v>1.058547536812585</v>
+        <v>1.084305246673493</v>
       </c>
       <c r="M3">
-        <v>1.068849088297344</v>
+        <v>1.093031003619709</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.043335328664685</v>
+        <v>1.080304654526588</v>
       </c>
       <c r="D4">
-        <v>1.055785339413501</v>
+        <v>1.079110843163895</v>
       </c>
       <c r="E4">
-        <v>1.052727751074096</v>
+        <v>1.08271230434714</v>
       </c>
       <c r="F4">
-        <v>1.06316974732038</v>
+        <v>1.091460663694051</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05833644926892</v>
+        <v>1.050920746271911</v>
       </c>
       <c r="J4">
-        <v>1.061691916302248</v>
+        <v>1.084633051092644</v>
       </c>
       <c r="K4">
-        <v>1.06525406336177</v>
+        <v>1.081490460681232</v>
       </c>
       <c r="L4">
-        <v>1.06222887139292</v>
+        <v>1.085083608082098</v>
       </c>
       <c r="M4">
-        <v>1.07256116883046</v>
+        <v>1.093812017004684</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.045397272894434</v>
+        <v>1.080737612399023</v>
       </c>
       <c r="D5">
-        <v>1.05739761443271</v>
+        <v>1.079450365168009</v>
       </c>
       <c r="E5">
-        <v>1.054477138083048</v>
+        <v>1.083089329772963</v>
       </c>
       <c r="F5">
-        <v>1.064928725230639</v>
+        <v>1.091838342704077</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058946142220136</v>
+        <v>1.05102442116833</v>
       </c>
       <c r="J5">
-        <v>1.063281268488139</v>
+        <v>1.084972507179559</v>
       </c>
       <c r="K5">
-        <v>1.06664086133243</v>
+        <v>1.081779709941691</v>
       </c>
       <c r="L5">
-        <v>1.063750445773571</v>
+        <v>1.085410462539439</v>
       </c>
       <c r="M5">
-        <v>1.074095379571494</v>
+        <v>1.094139971259655</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.045741519354406</v>
+        <v>1.080810290761983</v>
       </c>
       <c r="D6">
-        <v>1.057666804185399</v>
+        <v>1.079507353751883</v>
       </c>
       <c r="E6">
-        <v>1.054769267870191</v>
+        <v>1.083152620136099</v>
       </c>
       <c r="F6">
-        <v>1.065222451920156</v>
+        <v>1.091901741952301</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.0590477484576</v>
+        <v>1.051041801153961</v>
       </c>
       <c r="J6">
-        <v>1.063546555262165</v>
+        <v>1.085029480092797</v>
       </c>
       <c r="K6">
-        <v>1.066872294982868</v>
+        <v>1.081828249566462</v>
       </c>
       <c r="L6">
-        <v>1.064004437379887</v>
+        <v>1.08546532138539</v>
       </c>
       <c r="M6">
-        <v>1.074351476047473</v>
+        <v>1.094195013879438</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.04336301322273</v>
+        <v>1.080310440886965</v>
       </c>
       <c r="D7">
-        <v>1.055806985330617</v>
+        <v>1.07911538112735</v>
       </c>
       <c r="E7">
-        <v>1.052751234636865</v>
+        <v>1.082717343112673</v>
       </c>
       <c r="F7">
-        <v>1.063193359939038</v>
+        <v>1.091465711250012</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058344647575727</v>
+        <v>1.050922133424182</v>
       </c>
       <c r="J7">
-        <v>1.061713259584735</v>
+        <v>1.084637588484169</v>
       </c>
       <c r="K7">
-        <v>1.065272689490849</v>
+        <v>1.081494327429915</v>
       </c>
       <c r="L7">
-        <v>1.062249303274934</v>
+        <v>1.08508797696902</v>
       </c>
       <c r="M7">
-        <v>1.072581770690661</v>
+        <v>1.093816400646545</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.033123261353234</v>
+        <v>1.078218610023317</v>
       </c>
       <c r="D8">
-        <v>1.047803482304921</v>
+        <v>1.077474262429914</v>
       </c>
       <c r="E8">
-        <v>1.044073738725422</v>
+        <v>1.080895907699891</v>
       </c>
       <c r="F8">
-        <v>1.054467688900599</v>
+        <v>1.089641002472956</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055290992230197</v>
+        <v>1.050417949399115</v>
       </c>
       <c r="J8">
-        <v>1.053812395184148</v>
+        <v>1.082996138053326</v>
       </c>
       <c r="K8">
-        <v>1.058372636437358</v>
+        <v>1.080094702859811</v>
       </c>
       <c r="L8">
-        <v>1.054688049322274</v>
+        <v>1.083507594925812</v>
       </c>
       <c r="M8">
-        <v>1.064957144360838</v>
+        <v>1.092230587244521</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.013805775448726</v>
+        <v>1.074522424224321</v>
       </c>
       <c r="D9">
-        <v>1.03272582838449</v>
+        <v>1.074571719545457</v>
       </c>
       <c r="E9">
-        <v>1.027751255236498</v>
+        <v>1.077678174874105</v>
       </c>
       <c r="F9">
-        <v>1.03805293783587</v>
+        <v>1.086417042954855</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049431281890944</v>
+        <v>1.049514320603024</v>
       </c>
       <c r="J9">
-        <v>1.038880261638658</v>
+        <v>1.080090442810736</v>
       </c>
       <c r="K9">
-        <v>1.045309363211514</v>
+        <v>1.077613400672974</v>
       </c>
       <c r="L9">
-        <v>1.040409579730671</v>
+        <v>1.080710529878792</v>
       </c>
       <c r="M9">
-        <v>1.050557392514843</v>
+        <v>1.089423473702824</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9999056134234494</v>
+        <v>1.072050994147459</v>
       </c>
       <c r="D10">
-        <v>1.021900255807573</v>
+        <v>1.072629164192416</v>
       </c>
       <c r="E10">
-        <v>1.016047044607423</v>
+        <v>1.075527166485464</v>
       </c>
       <c r="F10">
-        <v>1.026282278606956</v>
+        <v>1.084261580086385</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045152515950617</v>
+        <v>1.048901551965604</v>
       </c>
       <c r="J10">
-        <v>1.02812297668767</v>
+        <v>1.078144021445737</v>
       </c>
       <c r="K10">
-        <v>1.035885040985602</v>
+        <v>1.075948800878151</v>
       </c>
       <c r="L10">
-        <v>1.030132485744598</v>
+        <v>1.078837239361449</v>
       </c>
       <c r="M10">
-        <v>1.040192676994935</v>
+        <v>1.087543166998733</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9936005603905761</v>
+        <v>1.070978991348958</v>
       </c>
       <c r="D11">
-        <v>1.016997897751228</v>
+        <v>1.071786153617813</v>
       </c>
       <c r="E11">
-        <v>1.010749926686671</v>
+        <v>1.074594281183618</v>
       </c>
       <c r="F11">
-        <v>1.020955236404387</v>
+        <v>1.083326695066478</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043198195086547</v>
+        <v>1.048633731171729</v>
       </c>
       <c r="J11">
-        <v>1.023242008313943</v>
+        <v>1.077298909981146</v>
       </c>
       <c r="K11">
-        <v>1.031606223399114</v>
+        <v>1.075225471857245</v>
       </c>
       <c r="L11">
-        <v>1.025471923193314</v>
+        <v>1.078023968494262</v>
       </c>
       <c r="M11">
-        <v>1.035492499718111</v>
+        <v>1.08672678366843</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9912112306802279</v>
+        <v>1.070580512906883</v>
       </c>
       <c r="D12">
-        <v>1.015141574927508</v>
+        <v>1.071472734056825</v>
       </c>
       <c r="E12">
-        <v>1.008744550404418</v>
+        <v>1.074247535475342</v>
       </c>
       <c r="F12">
-        <v>1.018938575000086</v>
+        <v>1.08297919601014</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042455696345866</v>
+        <v>1.048533874133649</v>
       </c>
       <c r="J12">
-        <v>1.02139226140775</v>
+        <v>1.076984645206498</v>
       </c>
       <c r="K12">
-        <v>1.029984324120108</v>
+        <v>1.074956406354372</v>
       </c>
       <c r="L12">
-        <v>1.02370611455511</v>
+        <v>1.077721557425901</v>
       </c>
       <c r="M12">
-        <v>1.033711719061556</v>
+        <v>1.086423205383225</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.991725969434947</v>
+        <v>1.070666001116159</v>
       </c>
       <c r="D13">
-        <v>1.015541417327102</v>
+        <v>1.071539976753687</v>
       </c>
       <c r="E13">
-        <v>1.009176479693533</v>
+        <v>1.074321924162376</v>
       </c>
       <c r="F13">
-        <v>1.019372932609168</v>
+        <v>1.083053746769508</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042615738062411</v>
+        <v>1.048555310886746</v>
       </c>
       <c r="J13">
-        <v>1.021790757717999</v>
+        <v>1.077052072150658</v>
       </c>
       <c r="K13">
-        <v>1.030333749504903</v>
+        <v>1.075014139518917</v>
       </c>
       <c r="L13">
-        <v>1.024086508722493</v>
+        <v>1.077786440494266</v>
       </c>
       <c r="M13">
-        <v>1.034095336516164</v>
+        <v>1.086488339325177</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9934040509877176</v>
+        <v>1.070946058946694</v>
       </c>
       <c r="D14">
-        <v>1.016845194447802</v>
+        <v>1.071760252171462</v>
       </c>
       <c r="E14">
-        <v>1.010584953705796</v>
+        <v>1.074565623822622</v>
       </c>
       <c r="F14">
-        <v>1.020789334034729</v>
+        <v>1.083297975648484</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043137166314974</v>
+        <v>1.048625484653317</v>
       </c>
       <c r="J14">
-        <v>1.023089877403527</v>
+        <v>1.077272939996232</v>
       </c>
       <c r="K14">
-        <v>1.031472838422477</v>
+        <v>1.075203238789112</v>
       </c>
       <c r="L14">
-        <v>1.02532668719647</v>
+        <v>1.077998977793134</v>
       </c>
       <c r="M14">
-        <v>1.035346031412818</v>
+        <v>1.086701696711021</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9944315571431902</v>
+        <v>1.071118573245301</v>
       </c>
       <c r="D15">
-        <v>1.017643708093502</v>
+        <v>1.071895932773902</v>
       </c>
       <c r="E15">
-        <v>1.011447644783466</v>
+        <v>1.074715744446885</v>
       </c>
       <c r="F15">
-        <v>1.021656887056203</v>
+        <v>1.083448420944709</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043456196500687</v>
+        <v>1.048668671060174</v>
       </c>
       <c r="J15">
-        <v>1.023885335427644</v>
+        <v>1.077408976998336</v>
       </c>
       <c r="K15">
-        <v>1.032170264293954</v>
+        <v>1.075319697367181</v>
       </c>
       <c r="L15">
-        <v>1.026086110163522</v>
+        <v>1.078129885621675</v>
       </c>
       <c r="M15">
-        <v>1.036111899620728</v>
+        <v>1.08683310835218</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.000317671092864</v>
+        <v>1.07212209947403</v>
       </c>
       <c r="D16">
-        <v>1.022220828450815</v>
+        <v>1.072685072026312</v>
       </c>
       <c r="E16">
-        <v>1.01639349235358</v>
+        <v>1.075589047091703</v>
       </c>
       <c r="F16">
-        <v>1.026630688299126</v>
+        <v>1.084323591921081</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045279969226987</v>
+        <v>1.048919273702947</v>
       </c>
       <c r="J16">
-        <v>1.028441945980565</v>
+        <v>1.078200059653883</v>
       </c>
       <c r="K16">
-        <v>1.036164608981684</v>
+        <v>1.075996751654728</v>
       </c>
       <c r="L16">
-        <v>1.030437106360194</v>
+        <v>1.078891168130565</v>
       </c>
       <c r="M16">
-        <v>1.040499890939731</v>
+        <v>1.08759730077002</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.003930361880621</v>
+        <v>1.07275108079777</v>
       </c>
       <c r="D17">
-        <v>1.025032365094807</v>
+        <v>1.073179572478613</v>
       </c>
       <c r="E17">
-        <v>1.019432311218463</v>
+        <v>1.076136444023509</v>
       </c>
       <c r="F17">
-        <v>1.029686735210162</v>
+        <v>1.08487214188839</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046395901643622</v>
+        <v>1.049075802139898</v>
       </c>
       <c r="J17">
-        <v>1.031238335470656</v>
+        <v>1.078695664359239</v>
       </c>
       <c r="K17">
-        <v>1.038615274477052</v>
+        <v>1.076420763736315</v>
       </c>
       <c r="L17">
-        <v>1.033107989592774</v>
+        <v>1.079368127036672</v>
       </c>
       <c r="M17">
-        <v>1.043193527914059</v>
+        <v>1.088076065113103</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.006010294043179</v>
+        <v>1.073117776431833</v>
       </c>
       <c r="D18">
-        <v>1.026651790243972</v>
+        <v>1.073467826133975</v>
       </c>
       <c r="E18">
-        <v>1.021182946484431</v>
+        <v>1.076455588675531</v>
       </c>
       <c r="F18">
-        <v>1.031447307913627</v>
+        <v>1.085191952239888</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04703710205329</v>
+        <v>1.049166862662682</v>
       </c>
       <c r="J18">
-        <v>1.032848146969601</v>
+        <v>1.078984520967246</v>
       </c>
       <c r="K18">
-        <v>1.040025808080115</v>
+        <v>1.076667837557832</v>
       </c>
       <c r="L18">
-        <v>1.034645785005704</v>
+        <v>1.07964612466548</v>
       </c>
       <c r="M18">
-        <v>1.044744434074771</v>
+        <v>1.088355108638813</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.006714991112786</v>
+        <v>1.073242780181228</v>
       </c>
       <c r="D19">
-        <v>1.027200583153215</v>
+        <v>1.073566082837924</v>
       </c>
       <c r="E19">
-        <v>1.021776255695644</v>
+        <v>1.076564384774239</v>
       </c>
       <c r="F19">
-        <v>1.032043986568634</v>
+        <v>1.085300974160932</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047254125951772</v>
+        <v>1.049197871343088</v>
       </c>
       <c r="J19">
-        <v>1.033393533708812</v>
+        <v>1.079082976306127</v>
       </c>
       <c r="K19">
-        <v>1.040503637283787</v>
+        <v>1.076752041937877</v>
       </c>
       <c r="L19">
-        <v>1.035166812427781</v>
+        <v>1.079740880208169</v>
       </c>
       <c r="M19">
-        <v>1.045269904771519</v>
+        <v>1.08845021958468</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.003545606570669</v>
+        <v>1.072683615591904</v>
       </c>
       <c r="D20">
-        <v>1.024732854929237</v>
+        <v>1.073126535936783</v>
       </c>
       <c r="E20">
-        <v>1.019108558319167</v>
+        <v>1.076077728329847</v>
       </c>
       <c r="F20">
-        <v>1.029361145408298</v>
+        <v>1.084813303192476</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046277185336645</v>
+        <v>1.049059032949969</v>
       </c>
       <c r="J20">
-        <v>1.030940531923618</v>
+        <v>1.078642513601925</v>
       </c>
       <c r="K20">
-        <v>1.038354315052213</v>
+        <v>1.076375296666317</v>
       </c>
       <c r="L20">
-        <v>1.032823527315988</v>
+        <v>1.079316975055973</v>
       </c>
       <c r="M20">
-        <v>1.042906641084436</v>
+        <v>1.088024720168671</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9929112429957899</v>
+        <v>1.070863596949502</v>
       </c>
       <c r="D21">
-        <v>1.01646226791657</v>
+        <v>1.071695394553101</v>
       </c>
       <c r="E21">
-        <v>1.010171265799694</v>
+        <v>1.074493866772486</v>
       </c>
       <c r="F21">
-        <v>1.020373316361106</v>
+        <v>1.083226063047526</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04298408775392</v>
+        <v>1.048604830642212</v>
       </c>
       <c r="J21">
-        <v>1.022708361410982</v>
+        <v>1.077207909718576</v>
       </c>
       <c r="K21">
-        <v>1.031138328290082</v>
+        <v>1.075147564553886</v>
       </c>
       <c r="L21">
-        <v>1.024962469079665</v>
+        <v>1.077936399913182</v>
       </c>
       <c r="M21">
-        <v>1.034978723622204</v>
+        <v>1.086638877642013</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9859484029625706</v>
+        <v>1.069717602744563</v>
       </c>
       <c r="D22">
-        <v>1.011055730119097</v>
+        <v>1.070793910084483</v>
       </c>
       <c r="E22">
-        <v>1.004331365074347</v>
+        <v>1.073496692359458</v>
       </c>
       <c r="F22">
-        <v>1.014500660961746</v>
+        <v>1.08222670330747</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040816888443999</v>
+        <v>1.048317076135127</v>
       </c>
       <c r="J22">
-        <v>1.017317968373869</v>
+        <v>1.076303872682771</v>
       </c>
       <c r="K22">
-        <v>1.026411306993684</v>
+        <v>1.074373387423526</v>
       </c>
       <c r="L22">
-        <v>1.019817502355255</v>
+        <v>1.077066487555472</v>
       </c>
       <c r="M22">
-        <v>1.029790228120186</v>
+        <v>1.085765589229425</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9896673749832164</v>
+        <v>1.070325278146967</v>
       </c>
       <c r="D23">
-        <v>1.013942559988529</v>
+        <v>1.071271964537073</v>
       </c>
       <c r="E23">
-        <v>1.007449374653222</v>
+        <v>1.074025442723107</v>
       </c>
       <c r="F23">
-        <v>1.017636125894468</v>
+        <v>1.08275661791412</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04197541546985</v>
+        <v>1.048469827736632</v>
       </c>
       <c r="J23">
-        <v>1.020197052052556</v>
+        <v>1.076783316137577</v>
       </c>
       <c r="K23">
-        <v>1.028936245922159</v>
+        <v>1.07478400907725</v>
       </c>
       <c r="L23">
-        <v>1.022565261781494</v>
+        <v>1.077527826051141</v>
       </c>
       <c r="M23">
-        <v>1.032561206297135</v>
+        <v>1.086228723501843</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.003719544943302</v>
+        <v>1.072714100766299</v>
       </c>
       <c r="D24">
-        <v>1.024868253792469</v>
+        <v>1.073150501423842</v>
       </c>
       <c r="E24">
-        <v>1.019254915612126</v>
+        <v>1.07610425986568</v>
       </c>
       <c r="F24">
-        <v>1.029508333062921</v>
+        <v>1.084839890328897</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046330858016827</v>
+        <v>1.049066610966352</v>
       </c>
       <c r="J24">
-        <v>1.031075162034929</v>
+        <v>1.078666530825124</v>
       </c>
       <c r="K24">
-        <v>1.03847228957666</v>
+        <v>1.07639584203617</v>
       </c>
       <c r="L24">
-        <v>1.032952125419784</v>
+        <v>1.079340089066148</v>
       </c>
       <c r="M24">
-        <v>1.04303633523679</v>
+        <v>1.08804792139306</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.01896658529433</v>
+        <v>1.075479227241966</v>
       </c>
       <c r="D25">
-        <v>1.036750615649222</v>
+        <v>1.075323397667219</v>
       </c>
       <c r="E25">
-        <v>1.032105621433918</v>
+        <v>1.078511039105214</v>
       </c>
       <c r="F25">
-        <v>1.042432031379493</v>
+        <v>1.087251570768124</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051007726020582</v>
+        <v>1.049749744496202</v>
       </c>
       <c r="J25">
-        <v>1.042872083826578</v>
+        <v>1.080843244094678</v>
       </c>
       <c r="K25">
-        <v>1.048804007784112</v>
+        <v>1.0782566856917</v>
       </c>
       <c r="L25">
-        <v>1.044225174884759</v>
+        <v>1.081435124226183</v>
       </c>
       <c r="M25">
-        <v>1.054405511916884</v>
+        <v>1.090150722027585</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_0/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.077679419419598</v>
+        <v>0.9626310369308632</v>
       </c>
       <c r="D2">
-        <v>1.077051058944554</v>
+        <v>0.9886668653317248</v>
       </c>
       <c r="E2">
-        <v>1.080426458009901</v>
+        <v>0.9717025505326139</v>
       </c>
       <c r="F2">
-        <v>1.089170678772191</v>
+        <v>0.9373878623774166</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050287125591677</v>
+        <v>1.0307695761173</v>
       </c>
       <c r="J2">
-        <v>1.082572676276498</v>
+        <v>0.9859899374366531</v>
       </c>
       <c r="K2">
-        <v>1.079733377003638</v>
+        <v>1.000286379806064</v>
       </c>
       <c r="L2">
-        <v>1.083099922956954</v>
+        <v>0.983570716598873</v>
       </c>
       <c r="M2">
-        <v>1.091821484445301</v>
+        <v>0.9497943589845839</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.079274077384808</v>
+        <v>0.9741197046967066</v>
       </c>
       <c r="D3">
-        <v>1.078302463502725</v>
+        <v>0.9975400573709022</v>
       </c>
       <c r="E3">
-        <v>1.081814909288513</v>
+        <v>0.9816447563085329</v>
       </c>
       <c r="F3">
-        <v>1.090561679395765</v>
+        <v>0.952136726735984</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050673018726119</v>
+        <v>1.034760932073159</v>
       </c>
       <c r="J3">
-        <v>1.083824640796738</v>
+        <v>0.9953416490766169</v>
       </c>
       <c r="K3">
-        <v>1.080801342285465</v>
+        <v>1.008204510688726</v>
       </c>
       <c r="L3">
-        <v>1.084305246673493</v>
+        <v>0.9925180111125887</v>
       </c>
       <c r="M3">
-        <v>1.093031003619709</v>
+        <v>0.9634210127105053</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.080304654526588</v>
+        <v>0.9811833483245926</v>
       </c>
       <c r="D4">
-        <v>1.079110843163895</v>
+        <v>1.002998958544203</v>
       </c>
       <c r="E4">
-        <v>1.08271230434714</v>
+        <v>0.9877593571912359</v>
       </c>
       <c r="F4">
-        <v>1.091460663694051</v>
+        <v>0.961188006217008</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050920746271911</v>
+        <v>1.037195021052742</v>
       </c>
       <c r="J4">
-        <v>1.084633051092644</v>
+        <v>1.001080948628349</v>
       </c>
       <c r="K4">
-        <v>1.081490460681232</v>
+        <v>1.013061323034851</v>
       </c>
       <c r="L4">
-        <v>1.085083608082098</v>
+        <v>0.9980077960741727</v>
       </c>
       <c r="M4">
-        <v>1.093812017004684</v>
+        <v>0.9717785839467554</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.080737612399023</v>
+        <v>0.9840725915156846</v>
       </c>
       <c r="D5">
-        <v>1.079450365168009</v>
+        <v>1.005232356364962</v>
       </c>
       <c r="E5">
-        <v>1.083089329772963</v>
+        <v>0.9902606757668947</v>
       </c>
       <c r="F5">
-        <v>1.091838342704077</v>
+        <v>0.964887236458748</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05102442116833</v>
+        <v>1.038185752416669</v>
       </c>
       <c r="J5">
-        <v>1.084972507179559</v>
+        <v>1.003425946718122</v>
       </c>
       <c r="K5">
-        <v>1.081779709941691</v>
+        <v>1.015045012812036</v>
       </c>
       <c r="L5">
-        <v>1.085410462539439</v>
+        <v>1.000250493367594</v>
       </c>
       <c r="M5">
-        <v>1.094139971259655</v>
+        <v>0.9751929860047717</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.080810290761983</v>
+        <v>0.984553216857236</v>
       </c>
       <c r="D6">
-        <v>1.079507353751883</v>
+        <v>1.005603906852583</v>
       </c>
       <c r="E6">
-        <v>1.083152620136099</v>
+        <v>0.990676780986594</v>
       </c>
       <c r="F6">
-        <v>1.091901741952301</v>
+        <v>0.9655024521337231</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051041801153961</v>
+        <v>1.038350270176513</v>
       </c>
       <c r="J6">
-        <v>1.085029480092797</v>
+        <v>1.003815885859449</v>
       </c>
       <c r="K6">
-        <v>1.081828249566462</v>
+        <v>1.01537482572124</v>
       </c>
       <c r="L6">
-        <v>1.08546532138539</v>
+        <v>1.000623399680372</v>
       </c>
       <c r="M6">
-        <v>1.094195013879438</v>
+        <v>0.9757607521484245</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.080310440886965</v>
+        <v>0.9812222600595645</v>
       </c>
       <c r="D7">
-        <v>1.07911538112735</v>
+        <v>1.003029035653498</v>
       </c>
       <c r="E7">
-        <v>1.082717343112673</v>
+        <v>0.9877930435948012</v>
       </c>
       <c r="F7">
-        <v>1.091465711250012</v>
+        <v>0.9612378374439006</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050922133424182</v>
+        <v>1.03720838355773</v>
       </c>
       <c r="J7">
-        <v>1.084637588484169</v>
+        <v>1.001112540757651</v>
       </c>
       <c r="K7">
-        <v>1.081494327429915</v>
+        <v>1.013088050615051</v>
       </c>
       <c r="L7">
-        <v>1.08508797696902</v>
+        <v>0.9980380114385732</v>
       </c>
       <c r="M7">
-        <v>1.093816400646545</v>
+        <v>0.9718245836818187</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.078218610023317</v>
+        <v>0.9665958218229643</v>
       </c>
       <c r="D8">
-        <v>1.077474262429914</v>
+        <v>0.9917281491470218</v>
       </c>
       <c r="E8">
-        <v>1.080895907699891</v>
+        <v>0.9751331541108689</v>
       </c>
       <c r="F8">
-        <v>1.089641002472956</v>
+        <v>0.942482067176492</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050417949399115</v>
+        <v>1.032151212267572</v>
       </c>
       <c r="J8">
-        <v>1.082996138053326</v>
+        <v>0.9892194675827927</v>
       </c>
       <c r="K8">
-        <v>1.080094702859811</v>
+        <v>1.003021346131679</v>
       </c>
       <c r="L8">
-        <v>1.083507594925812</v>
+        <v>0.9866608417472885</v>
       </c>
       <c r="M8">
-        <v>1.092230587244521</v>
+        <v>0.9545019562034177</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.074522424224321</v>
+        <v>0.9375207092744422</v>
       </c>
       <c r="D9">
-        <v>1.074571719545457</v>
+        <v>0.9693075607549899</v>
       </c>
       <c r="E9">
-        <v>1.077678174874105</v>
+        <v>0.9499922893967364</v>
       </c>
       <c r="F9">
-        <v>1.086417042954855</v>
+        <v>0.9049895117027653</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049514320603024</v>
+        <v>1.021933945508185</v>
       </c>
       <c r="J9">
-        <v>1.080090442810736</v>
+        <v>0.9654905551734673</v>
       </c>
       <c r="K9">
-        <v>1.077613400672974</v>
+        <v>0.9829190361160911</v>
       </c>
       <c r="L9">
-        <v>1.080710529878792</v>
+        <v>0.9639523943689678</v>
       </c>
       <c r="M9">
-        <v>1.089423473702824</v>
+        <v>0.9198383120847085</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.072050994147459</v>
+        <v>0.915057699228272</v>
       </c>
       <c r="D10">
-        <v>1.072629164192416</v>
+        <v>0.9520442931450218</v>
       </c>
       <c r="E10">
-        <v>1.075527166485464</v>
+        <v>0.9306048912318561</v>
       </c>
       <c r="F10">
-        <v>1.084261580086385</v>
+        <v>0.8757457548717924</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048901551965604</v>
+        <v>1.013934927751297</v>
       </c>
       <c r="J10">
-        <v>1.078144021445737</v>
+        <v>0.9470997962636369</v>
       </c>
       <c r="K10">
-        <v>1.075948800878151</v>
+        <v>0.9673369685553548</v>
       </c>
       <c r="L10">
-        <v>1.078837239361449</v>
+        <v>0.946351318456106</v>
       </c>
       <c r="M10">
-        <v>1.087543166998733</v>
+        <v>0.892790369199534</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.070978991348958</v>
+        <v>0.9043140534259881</v>
       </c>
       <c r="D11">
-        <v>1.071786153617813</v>
+        <v>0.9438102772121646</v>
       </c>
       <c r="E11">
-        <v>1.074594281183618</v>
+        <v>0.9213468645887878</v>
       </c>
       <c r="F11">
-        <v>1.083326695066478</v>
+        <v>0.8616458336079051</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048633731171729</v>
+        <v>1.010086775679745</v>
       </c>
       <c r="J11">
-        <v>1.077298909981146</v>
+        <v>0.938290566387188</v>
       </c>
       <c r="K11">
-        <v>1.075225471857245</v>
+        <v>0.9598757867404127</v>
       </c>
       <c r="L11">
-        <v>1.078023968494262</v>
+        <v>0.937921875939719</v>
       </c>
       <c r="M11">
-        <v>1.08672678366843</v>
+        <v>0.8797518762683837</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.070580512906883</v>
+        <v>0.9001349369169596</v>
       </c>
       <c r="D12">
-        <v>1.071472734056825</v>
+        <v>0.9406117722454593</v>
       </c>
       <c r="E12">
-        <v>1.074247535475342</v>
+        <v>0.9177485320943362</v>
       </c>
       <c r="F12">
-        <v>1.08297919601014</v>
+        <v>0.8561381416992525</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048533874133649</v>
+        <v>1.008586859281919</v>
       </c>
       <c r="J12">
-        <v>1.076984645206498</v>
+        <v>0.9348619635728419</v>
       </c>
       <c r="K12">
-        <v>1.074956406354372</v>
+        <v>0.9569726252708672</v>
       </c>
       <c r="L12">
-        <v>1.077721557425901</v>
+        <v>0.9346415554967481</v>
       </c>
       <c r="M12">
-        <v>1.086423205383225</v>
+        <v>0.874659897222314</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.070666001116159</v>
+        <v>0.901040619324028</v>
       </c>
       <c r="D13">
-        <v>1.071539976753687</v>
+        <v>0.9413047234826146</v>
       </c>
       <c r="E13">
-        <v>1.074321924162376</v>
+        <v>0.918528205246911</v>
       </c>
       <c r="F13">
-        <v>1.083053746769508</v>
+        <v>0.8573329056319052</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048555310886746</v>
+        <v>1.008912046242702</v>
       </c>
       <c r="J13">
-        <v>1.077052072150658</v>
+        <v>0.9356050842515509</v>
       </c>
       <c r="K13">
-        <v>1.075014139518917</v>
+        <v>0.9576018190672827</v>
       </c>
       <c r="L13">
-        <v>1.077786440494266</v>
+        <v>0.9353525113948772</v>
       </c>
       <c r="M13">
-        <v>1.086488339325177</v>
+        <v>0.8757644185486632</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.070946058946694</v>
+        <v>0.9039727046874941</v>
       </c>
       <c r="D14">
-        <v>1.071760252171462</v>
+        <v>0.9435489293815954</v>
       </c>
       <c r="E14">
-        <v>1.074565623822622</v>
+        <v>0.9210528910378835</v>
       </c>
       <c r="F14">
-        <v>1.083297975648484</v>
+        <v>0.8611964729078249</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048625484653317</v>
+        <v>1.009964322059151</v>
       </c>
       <c r="J14">
-        <v>1.077272939996232</v>
+        <v>0.9380105581812008</v>
       </c>
       <c r="K14">
-        <v>1.075203238789112</v>
+        <v>0.9596386723937721</v>
       </c>
       <c r="L14">
-        <v>1.077998977793134</v>
+        <v>0.9376539666309071</v>
       </c>
       <c r="M14">
-        <v>1.086701696711021</v>
+        <v>0.8793364056960223</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.071118573245301</v>
+        <v>0.9057529973430565</v>
       </c>
       <c r="D15">
-        <v>1.071895932773902</v>
+        <v>0.9449121634526532</v>
       </c>
       <c r="E15">
-        <v>1.074715744446885</v>
+        <v>0.9225862212197889</v>
       </c>
       <c r="F15">
-        <v>1.083448420944709</v>
+        <v>0.8635391315464297</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048668671060174</v>
+        <v>1.010602854577959</v>
       </c>
       <c r="J15">
-        <v>1.077408976998336</v>
+        <v>0.9394708535209865</v>
       </c>
       <c r="K15">
-        <v>1.075319697367181</v>
+        <v>0.9608753017309134</v>
       </c>
       <c r="L15">
-        <v>1.078129885621675</v>
+        <v>0.9390511843418015</v>
       </c>
       <c r="M15">
-        <v>1.08683310835218</v>
+        <v>0.8815024332814806</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.07212209947403</v>
+        <v>0.9157465301262271</v>
       </c>
       <c r="D16">
-        <v>1.072685072026312</v>
+        <v>0.9525727523430386</v>
       </c>
       <c r="E16">
-        <v>1.075589047091703</v>
+        <v>0.9311988196248198</v>
       </c>
       <c r="F16">
-        <v>1.084323591921081</v>
+        <v>0.8766470444721219</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048919273702947</v>
+        <v>1.01418122553716</v>
       </c>
       <c r="J16">
-        <v>1.078200059653883</v>
+        <v>0.9476643381514324</v>
       </c>
       <c r="K16">
-        <v>1.075996751654728</v>
+        <v>0.9678152024677571</v>
       </c>
       <c r="L16">
-        <v>1.078891168130565</v>
+        <v>0.9468915698607643</v>
       </c>
       <c r="M16">
-        <v>1.08759730077002</v>
+        <v>0.8936239158667603</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.07275108079777</v>
+        <v>0.9217214422396111</v>
       </c>
       <c r="D17">
-        <v>1.073179572478613</v>
+        <v>0.957159170551564</v>
       </c>
       <c r="E17">
-        <v>1.076136444023509</v>
+        <v>0.9363522062296097</v>
       </c>
       <c r="F17">
-        <v>1.08487214188839</v>
+        <v>0.8844519850694059</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049075802139898</v>
+        <v>1.016315193185388</v>
       </c>
       <c r="J17">
-        <v>1.078695664359239</v>
+        <v>0.9525597252145017</v>
       </c>
       <c r="K17">
-        <v>1.076420763736315</v>
+        <v>0.971962500024104</v>
       </c>
       <c r="L17">
-        <v>1.079368127036672</v>
+        <v>0.9515765084632939</v>
       </c>
       <c r="M17">
-        <v>1.088076065113103</v>
+        <v>0.9008425671779009</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.073117776431833</v>
+        <v>0.9251113108309654</v>
       </c>
       <c r="D18">
-        <v>1.073467826133975</v>
+        <v>0.9597632629959809</v>
       </c>
       <c r="E18">
-        <v>1.076455588675531</v>
+        <v>0.939277255805367</v>
       </c>
       <c r="F18">
-        <v>1.085191952239888</v>
+        <v>0.8888703122593417</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049166862662682</v>
+        <v>1.017523848230119</v>
       </c>
       <c r="J18">
-        <v>1.078984520967246</v>
+        <v>0.9553359184725264</v>
       </c>
       <c r="K18">
-        <v>1.076667837557832</v>
+        <v>0.974314664245291</v>
       </c>
       <c r="L18">
-        <v>1.07964612466548</v>
+        <v>0.9542334758284874</v>
       </c>
       <c r="M18">
-        <v>1.088355108638813</v>
+        <v>0.9049291921259222</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C19">
-        <v>1.073242780181228</v>
+        <v>0.9262519110647907</v>
       </c>
       <c r="D19">
-        <v>1.073566082837924</v>
+        <v>0.960639783231071</v>
       </c>
       <c r="E19">
-        <v>1.076564384774239</v>
+        <v>0.9402616559604594</v>
       </c>
       <c r="F19">
-        <v>1.085300974160932</v>
+        <v>0.8903554355946155</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049197871343088</v>
+        <v>1.017930172293868</v>
       </c>
       <c r="J19">
-        <v>1.079082976306127</v>
+        <v>0.9562698271110007</v>
       </c>
       <c r="K19">
-        <v>1.076752041937877</v>
+        <v>0.9751059575394622</v>
       </c>
       <c r="L19">
-        <v>1.079740880208169</v>
+        <v>0.9551272919725216</v>
       </c>
       <c r="M19">
-        <v>1.08845021958468</v>
+        <v>0.9063028380127214</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.072683615591904</v>
+        <v>0.9210904556031335</v>
       </c>
       <c r="D20">
-        <v>1.073126535936783</v>
+        <v>0.9566746035879304</v>
       </c>
       <c r="E20">
-        <v>1.076077728329847</v>
+        <v>0.9358078402760391</v>
       </c>
       <c r="F20">
-        <v>1.084813303192476</v>
+        <v>0.8836287961697044</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049059032949969</v>
+        <v>1.016090045949251</v>
       </c>
       <c r="J20">
-        <v>1.078642513601925</v>
+        <v>0.9520428686403609</v>
       </c>
       <c r="K20">
-        <v>1.076375296666317</v>
+        <v>0.9715246022460846</v>
       </c>
       <c r="L20">
-        <v>1.079316975055973</v>
+        <v>0.9510818571814423</v>
       </c>
       <c r="M20">
-        <v>1.088024720168671</v>
+        <v>0.900081190302303</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.070863596949502</v>
+        <v>0.9031148339939377</v>
       </c>
       <c r="D21">
-        <v>1.071695394553101</v>
+        <v>0.9428921894768313</v>
       </c>
       <c r="E21">
-        <v>1.074493866772486</v>
+        <v>0.920314131764901</v>
       </c>
       <c r="F21">
-        <v>1.083226063047526</v>
+        <v>0.8600667564151717</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048604830642212</v>
+        <v>1.009656526767692</v>
       </c>
       <c r="J21">
-        <v>1.077207909718576</v>
+        <v>0.9373068163578627</v>
       </c>
       <c r="K21">
-        <v>1.075147564553886</v>
+        <v>0.9590427490767794</v>
       </c>
       <c r="L21">
-        <v>1.077936399913182</v>
+        <v>0.9369806412718242</v>
       </c>
       <c r="M21">
-        <v>1.086638877642013</v>
+        <v>0.8782919111358191</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.069717602744563</v>
+        <v>0.8906935541877629</v>
       </c>
       <c r="D22">
-        <v>1.070793910084483</v>
+        <v>0.9333953991352024</v>
       </c>
       <c r="E22">
-        <v>1.073496692359458</v>
+        <v>0.909625680099944</v>
       </c>
       <c r="F22">
-        <v>1.08222670330747</v>
+        <v>0.8436429248080023</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048317076135127</v>
+        <v>1.005193023972452</v>
       </c>
       <c r="J22">
-        <v>1.076303872682771</v>
+        <v>0.9271125255348817</v>
       </c>
       <c r="K22">
-        <v>1.074373387423526</v>
+        <v>0.9504127854520256</v>
       </c>
       <c r="L22">
-        <v>1.077066487555472</v>
+        <v>0.9272285095471243</v>
       </c>
       <c r="M22">
-        <v>1.085765589229425</v>
+        <v>0.8631109330092445</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.070325278146967</v>
+        <v>0.8974002148350928</v>
       </c>
       <c r="D23">
-        <v>1.071271964537073</v>
+        <v>0.9385201349741433</v>
       </c>
       <c r="E23">
-        <v>1.074025442723107</v>
+        <v>0.9153947901448034</v>
       </c>
       <c r="F23">
-        <v>1.08275661791412</v>
+        <v>0.8525265378640372</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048469827736632</v>
+        <v>1.007604535261551</v>
       </c>
       <c r="J23">
-        <v>1.076783316137577</v>
+        <v>0.9326178164204673</v>
       </c>
       <c r="K23">
-        <v>1.07478400907725</v>
+        <v>0.9550726745602262</v>
       </c>
       <c r="L23">
-        <v>1.077527826051141</v>
+        <v>0.9324946354860214</v>
       </c>
       <c r="M23">
-        <v>1.086228723501843</v>
+        <v>0.8713213164869574</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.072714100766299</v>
+        <v>0.9213758629571592</v>
       </c>
       <c r="D24">
-        <v>1.073150501423842</v>
+        <v>0.9568937763752323</v>
       </c>
       <c r="E24">
-        <v>1.07610425986568</v>
+        <v>0.9360540635005278</v>
       </c>
       <c r="F24">
-        <v>1.084839890328897</v>
+        <v>0.8840011705534473</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049066610966352</v>
+        <v>1.016191890798392</v>
       </c>
       <c r="J24">
-        <v>1.078666530825124</v>
+        <v>0.9522766565539063</v>
       </c>
       <c r="K24">
-        <v>1.07639584203617</v>
+        <v>0.9717226743570925</v>
       </c>
       <c r="L24">
-        <v>1.079340089066148</v>
+        <v>0.9513056006931292</v>
       </c>
       <c r="M24">
-        <v>1.08804792139306</v>
+        <v>0.9004256030938486</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.075479227241966</v>
+        <v>0.9455038186231658</v>
       </c>
       <c r="D25">
-        <v>1.075323397667219</v>
+        <v>0.9754561827162859</v>
       </c>
       <c r="E25">
-        <v>1.078511039105214</v>
+        <v>0.9568907735382773</v>
       </c>
       <c r="F25">
-        <v>1.087251570768124</v>
+        <v>0.9153181483625423</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049749744496202</v>
+        <v>1.024757229012187</v>
       </c>
       <c r="J25">
-        <v>1.080843244094678</v>
+        <v>0.9720154682932067</v>
       </c>
       <c r="K25">
-        <v>1.0782566856917</v>
+        <v>0.9884478466182564</v>
       </c>
       <c r="L25">
-        <v>1.081435124226183</v>
+        <v>0.9701973222565349</v>
       </c>
       <c r="M25">
-        <v>1.090150722027585</v>
+        <v>0.9293905833322186</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_0/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,37 +433,49 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9626310369308632</v>
+        <v>0.9962003282660739</v>
       </c>
       <c r="D2">
-        <v>0.9886668653317248</v>
+        <v>1.018904648779628</v>
       </c>
       <c r="E2">
-        <v>0.9717025505326139</v>
+        <v>1.000760036485551</v>
       </c>
       <c r="F2">
-        <v>0.9373878623774166</v>
+        <v>1.014976242378774</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0307695761173</v>
+        <v>1.046110534147515</v>
       </c>
       <c r="J2">
-        <v>0.9859899374366531</v>
+        <v>1.018495283862145</v>
       </c>
       <c r="K2">
-        <v>1.000286379806064</v>
+        <v>1.03010674754711</v>
       </c>
       <c r="L2">
-        <v>0.983570716598873</v>
+        <v>1.012208792938704</v>
       </c>
       <c r="M2">
-        <v>0.9497943589845839</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.026230803887091</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.029332224170409</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.032358256542616</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,37 +483,49 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9741197046967066</v>
+        <v>1.003004161026313</v>
       </c>
       <c r="D3">
-        <v>0.9975400573709022</v>
+        <v>1.023670557773149</v>
       </c>
       <c r="E3">
-        <v>0.9816447563085329</v>
+        <v>1.006671856880184</v>
       </c>
       <c r="F3">
-        <v>0.952136726735984</v>
+        <v>1.019329875035834</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034760932073159</v>
+        <v>1.048034583933881</v>
       </c>
       <c r="J3">
-        <v>0.9953416490766169</v>
+        <v>1.023413263266068</v>
       </c>
       <c r="K3">
-        <v>1.008204510688726</v>
+        <v>1.034009269204074</v>
       </c>
       <c r="L3">
-        <v>0.9925180111125887</v>
+        <v>1.01722007592305</v>
       </c>
       <c r="M3">
-        <v>0.9634210127105053</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.029721259161193</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.032094723683061</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.03511504608306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -497,37 +533,49 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9811833483245926</v>
+        <v>1.007271212520554</v>
       </c>
       <c r="D4">
-        <v>1.002998958544203</v>
+        <v>1.026661538413549</v>
       </c>
       <c r="E4">
-        <v>0.9877593571912359</v>
+        <v>1.010379937729063</v>
       </c>
       <c r="F4">
-        <v>0.961188006217008</v>
+        <v>1.022076850853497</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037195021052742</v>
+        <v>1.049224594788812</v>
       </c>
       <c r="J4">
-        <v>1.001080948628349</v>
+        <v>1.026490731199302</v>
       </c>
       <c r="K4">
-        <v>1.013061323034851</v>
+        <v>1.036448488442426</v>
       </c>
       <c r="L4">
-        <v>0.9980077960741727</v>
+        <v>1.020354679699776</v>
       </c>
       <c r="M4">
-        <v>0.9717785839467554</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.031915933825554</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.033831679946712</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.03684070942251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -535,37 +583,49 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9840725915156846</v>
+        <v>1.009048863015001</v>
       </c>
       <c r="D5">
-        <v>1.005232356364962</v>
+        <v>1.027909971048913</v>
       </c>
       <c r="E5">
-        <v>0.9902606757668947</v>
+        <v>1.011930516893671</v>
       </c>
       <c r="F5">
-        <v>0.964887236458748</v>
+        <v>1.02322200174586</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038185752416669</v>
+        <v>1.049718428893067</v>
       </c>
       <c r="J5">
-        <v>1.003425946718122</v>
+        <v>1.027774791860137</v>
       </c>
       <c r="K5">
-        <v>1.015045012812036</v>
+        <v>1.0374663669042</v>
       </c>
       <c r="L5">
-        <v>1.000250493367594</v>
+        <v>1.021666008519164</v>
       </c>
       <c r="M5">
-        <v>0.9751929860047717</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.032830226493539</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.034555287696527</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.037567638485901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -573,37 +633,49 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.984553216857236</v>
+        <v>1.009363238341723</v>
       </c>
       <c r="D6">
-        <v>1.005603906852583</v>
+        <v>1.028133206984309</v>
       </c>
       <c r="E6">
-        <v>0.990676780986594</v>
+        <v>1.012211689081995</v>
       </c>
       <c r="F6">
-        <v>0.9655024521337231</v>
+        <v>1.02342099311866</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038350270176513</v>
+        <v>1.049808163374017</v>
       </c>
       <c r="J6">
-        <v>1.003815885859449</v>
+        <v>1.028006256297145</v>
       </c>
       <c r="K6">
-        <v>1.01537482572124</v>
+        <v>1.037650817444815</v>
       </c>
       <c r="L6">
-        <v>1.000623399680372</v>
+        <v>1.021906872372336</v>
       </c>
       <c r="M6">
-        <v>0.9757607521484245</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.032990451177243</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.0346820958368</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.03770683322217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -611,37 +683,49 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9812222600595645</v>
+        <v>1.007343474461415</v>
       </c>
       <c r="D7">
-        <v>1.003029035653498</v>
+        <v>1.026718762839706</v>
       </c>
       <c r="E7">
-        <v>0.9877930435948012</v>
+        <v>1.010462143047635</v>
       </c>
       <c r="F7">
-        <v>0.9612378374439006</v>
+        <v>1.022113130222128</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03720838355773</v>
+        <v>1.049251819088909</v>
       </c>
       <c r="J7">
-        <v>1.001112540757651</v>
+        <v>1.026555158019518</v>
       </c>
       <c r="K7">
-        <v>1.013088050615051</v>
+        <v>1.036502168873073</v>
       </c>
       <c r="L7">
-        <v>0.9980380114385732</v>
+        <v>1.020432958429609</v>
       </c>
       <c r="M7">
-        <v>0.9718245836818187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.031948883989431</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.033857758035911</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.036898856348228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -649,37 +733,49 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9665958218229643</v>
+        <v>0.9985934070562132</v>
       </c>
       <c r="D8">
-        <v>0.9917281491470218</v>
+        <v>1.020588368166239</v>
       </c>
       <c r="E8">
-        <v>0.9751331541108689</v>
+        <v>1.002865556830742</v>
       </c>
       <c r="F8">
-        <v>0.942482067176492</v>
+        <v>1.016490573822984</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032151212267572</v>
+        <v>1.046799474356154</v>
       </c>
       <c r="J8">
-        <v>0.9892194675827927</v>
+        <v>1.02024249041196</v>
       </c>
       <c r="K8">
-        <v>1.003021346131679</v>
+        <v>1.031496495703758</v>
       </c>
       <c r="L8">
-        <v>0.9866608417472885</v>
+        <v>1.014006851737242</v>
       </c>
       <c r="M8">
-        <v>0.9545019562034177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.027451708496032</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.030298502916456</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.033364021226814</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -687,37 +783,49 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9375207092744422</v>
+        <v>0.9819670815515904</v>
       </c>
       <c r="D9">
-        <v>0.9693075607549899</v>
+        <v>1.008951733659535</v>
       </c>
       <c r="E9">
-        <v>0.9499922893967364</v>
+        <v>0.9884022034075312</v>
       </c>
       <c r="F9">
-        <v>0.9049895117027653</v>
+        <v>1.005967622473028</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.021933945508185</v>
+        <v>1.041996184712274</v>
       </c>
       <c r="J9">
-        <v>0.9654905551734673</v>
+        <v>1.008173103253151</v>
       </c>
       <c r="K9">
-        <v>0.9829190361160911</v>
+        <v>1.021901225809749</v>
       </c>
       <c r="L9">
-        <v>0.9639523943689678</v>
+        <v>1.001686291798209</v>
       </c>
       <c r="M9">
-        <v>0.9198383120847085</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.018964615505891</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.023581408232709</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.026576140397414</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -725,37 +833,49 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.915057699228272</v>
+        <v>0.9704285820242204</v>
       </c>
       <c r="D10">
-        <v>0.9520442931450218</v>
+        <v>1.000909432613732</v>
       </c>
       <c r="E10">
-        <v>0.9306048912318561</v>
+        <v>0.9784905634863736</v>
       </c>
       <c r="F10">
-        <v>0.8757457548717924</v>
+        <v>0.9989752426915282</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.013934927751297</v>
+        <v>1.038611707961555</v>
       </c>
       <c r="J10">
-        <v>0.9470997962636369</v>
+        <v>0.9998666549941455</v>
       </c>
       <c r="K10">
-        <v>0.9673369685553548</v>
+        <v>1.015262286364947</v>
       </c>
       <c r="L10">
-        <v>0.946351318456106</v>
+        <v>0.9932593496087434</v>
       </c>
       <c r="M10">
-        <v>0.892790369199534</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.013363024130805</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.019200672746587</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.021898900736218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -763,37 +883,49 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9043140534259881</v>
+        <v>0.9686344660565845</v>
       </c>
       <c r="D11">
-        <v>0.9438102772121646</v>
+        <v>0.9997366345656006</v>
       </c>
       <c r="E11">
-        <v>0.9213468645887878</v>
+        <v>0.9778972928817642</v>
       </c>
       <c r="F11">
-        <v>0.8616458336079051</v>
+        <v>0.9995723354401777</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.010086775679745</v>
+        <v>1.038304213346102</v>
       </c>
       <c r="J11">
-        <v>0.938290566387188</v>
+        <v>0.9993729161888802</v>
       </c>
       <c r="K11">
-        <v>0.9598757867404127</v>
+        <v>1.014663519282524</v>
       </c>
       <c r="L11">
-        <v>0.937921875939719</v>
+        <v>0.9932484283426443</v>
       </c>
       <c r="M11">
-        <v>0.8797518762683837</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.014502321397373</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.020547747081716</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.021508982793565</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -801,37 +933,49 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9001349369169596</v>
+        <v>0.9691110581778271</v>
       </c>
       <c r="D12">
-        <v>0.9406117722454593</v>
+        <v>1.000116117529558</v>
       </c>
       <c r="E12">
-        <v>0.9177485320943362</v>
+        <v>0.9789981893337589</v>
       </c>
       <c r="F12">
-        <v>0.8561381416992525</v>
+        <v>1.001035408646428</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.008586859281919</v>
+        <v>1.038600007289763</v>
       </c>
       <c r="J12">
-        <v>0.9348619635728419</v>
+        <v>1.000282769012228</v>
       </c>
       <c r="K12">
-        <v>0.9569726252708672</v>
+        <v>1.01524109324888</v>
       </c>
       <c r="L12">
-        <v>0.9346415554967481</v>
+        <v>0.9945391234950561</v>
       </c>
       <c r="M12">
-        <v>0.874659897222314</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.016142798709137</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.022177457261113</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.021917360207492</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -839,37 +983,49 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.901040619324028</v>
+        <v>0.971408767553556</v>
       </c>
       <c r="D13">
-        <v>0.9413047234826146</v>
+        <v>1.001752005323857</v>
       </c>
       <c r="E13">
-        <v>0.918528205246911</v>
+        <v>0.9815296382438228</v>
       </c>
       <c r="F13">
-        <v>0.8573329056319052</v>
+        <v>1.003298293793421</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.008912046242702</v>
+        <v>1.039404224524112</v>
       </c>
       <c r="J13">
-        <v>0.9356050842515509</v>
+        <v>1.002377208261721</v>
       </c>
       <c r="K13">
-        <v>0.9576018190672827</v>
+        <v>1.016801795098355</v>
       </c>
       <c r="L13">
-        <v>0.9353525113948772</v>
+        <v>0.996974211507722</v>
       </c>
       <c r="M13">
-        <v>0.8757644185486632</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.018318752804788</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.024178534060723</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.023018328866932</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -877,37 +1033,49 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9039727046874941</v>
+        <v>0.9737893523969251</v>
       </c>
       <c r="D14">
-        <v>0.9435489293815954</v>
+        <v>1.003430716609744</v>
       </c>
       <c r="E14">
-        <v>0.9210528910378835</v>
+        <v>0.9838953464480117</v>
       </c>
       <c r="F14">
-        <v>0.8611964729078249</v>
+        <v>1.005197286719173</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.009964322059151</v>
+        <v>1.040179449836307</v>
       </c>
       <c r="J14">
-        <v>0.9380105581812008</v>
+        <v>1.004331970169383</v>
       </c>
       <c r="K14">
-        <v>0.9596386723937721</v>
+        <v>1.018305107705501</v>
       </c>
       <c r="L14">
-        <v>0.9376539666309071</v>
+        <v>0.9991448777651637</v>
       </c>
       <c r="M14">
-        <v>0.8793364056960223</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.02003869207298</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.025713391174276</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.024082700046772</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -915,37 +1083,49 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9057529973430565</v>
+        <v>0.9748106159212746</v>
       </c>
       <c r="D15">
-        <v>0.9449121634526532</v>
+        <v>1.004147680371704</v>
       </c>
       <c r="E15">
-        <v>0.9225862212197889</v>
+        <v>0.984834939342797</v>
       </c>
       <c r="F15">
-        <v>0.8635391315464297</v>
+        <v>1.00589840601592</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.010602854577959</v>
+        <v>1.040496611247889</v>
       </c>
       <c r="J15">
-        <v>0.9394708535209865</v>
+        <v>1.005112500729795</v>
       </c>
       <c r="K15">
-        <v>0.9608753017309134</v>
+        <v>1.018920303917442</v>
       </c>
       <c r="L15">
-        <v>0.9390511843418015</v>
+        <v>0.9999750734911618</v>
       </c>
       <c r="M15">
-        <v>0.8815024332814806</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.020638623504127</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.026225477483153</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.02452363392924</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -953,37 +1133,49 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9157465301262271</v>
+        <v>0.9791551916293029</v>
       </c>
       <c r="D16">
-        <v>0.9525727523430386</v>
+        <v>1.007170366854927</v>
       </c>
       <c r="E16">
-        <v>0.9311988196248198</v>
+        <v>0.9884185528380645</v>
       </c>
       <c r="F16">
-        <v>0.8766470444721219</v>
+        <v>1.008409425349487</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.01418122553716</v>
+        <v>1.041758533441246</v>
       </c>
       <c r="J16">
-        <v>0.9476643381514324</v>
+        <v>1.008141441491683</v>
       </c>
       <c r="K16">
-        <v>0.9678152024677571</v>
+        <v>1.021375052850669</v>
       </c>
       <c r="L16">
-        <v>0.9468915698607643</v>
+        <v>1.002962807347425</v>
       </c>
       <c r="M16">
-        <v>0.8936239158667603</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.022592250413594</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.027730513060009</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.026262469935392</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,113 +1183,149 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9217214422396111</v>
+        <v>0.9812794494905571</v>
       </c>
       <c r="D17">
-        <v>0.957159170551564</v>
+        <v>1.008637753111312</v>
       </c>
       <c r="E17">
-        <v>0.9363522062296097</v>
+        <v>0.9899743482451404</v>
       </c>
       <c r="F17">
-        <v>0.8844519850694059</v>
+        <v>1.009362306791539</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.016315193185388</v>
+        <v>1.042330764313175</v>
       </c>
       <c r="J17">
-        <v>0.9525597252145017</v>
+        <v>1.009476538273532</v>
       </c>
       <c r="K17">
-        <v>0.971962500024104</v>
+        <v>1.022496007499148</v>
       </c>
       <c r="L17">
-        <v>0.9515765084632939</v>
+        <v>1.004160477029909</v>
       </c>
       <c r="M17">
-        <v>0.9008425671779009</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.023208148313934</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.028086999996124</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.027057657957854</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C18">
-        <v>0.9251113108309654</v>
+        <v>0.9815385919274398</v>
       </c>
       <c r="D18">
-        <v>0.9597632629959809</v>
+        <v>1.008787229201811</v>
       </c>
       <c r="E18">
-        <v>0.939277255805367</v>
+        <v>0.9897467454632243</v>
       </c>
       <c r="F18">
-        <v>0.8888703122593417</v>
+        <v>1.0088426936728</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.017523848230119</v>
+        <v>1.042306064882273</v>
       </c>
       <c r="J18">
-        <v>0.9553359184725264</v>
+        <v>1.009317660648678</v>
       </c>
       <c r="K18">
-        <v>0.974314664245291</v>
+        <v>1.022455988101414</v>
       </c>
       <c r="L18">
-        <v>0.9542334758284874</v>
+        <v>1.003744842060312</v>
       </c>
       <c r="M18">
-        <v>0.9049291921259222</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.02251051664583</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.027295002442295</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.027017581560257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9262519110647907</v>
+        <v>0.9800739958892358</v>
       </c>
       <c r="D19">
-        <v>0.960639783231071</v>
+        <v>1.007725589163131</v>
       </c>
       <c r="E19">
-        <v>0.9402616559604594</v>
+        <v>0.9878954689688225</v>
       </c>
       <c r="F19">
-        <v>0.8903554355946155</v>
+        <v>1.006873608924709</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.017930172293868</v>
+        <v>1.041734362940576</v>
       </c>
       <c r="J19">
-        <v>0.9562698271110007</v>
+        <v>1.007772340405542</v>
       </c>
       <c r="K19">
-        <v>0.9751059575394622</v>
+        <v>1.021348452879237</v>
       </c>
       <c r="L19">
-        <v>0.9551272919725216</v>
+        <v>1.001860780345328</v>
       </c>
       <c r="M19">
-        <v>0.9063028380127214</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.020510827805284</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.025383511255533</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.026240982561825</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1333,49 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9210904556031335</v>
+        <v>0.9736210371323776</v>
       </c>
       <c r="D20">
-        <v>0.9566746035879304</v>
+        <v>1.003148089874901</v>
       </c>
       <c r="E20">
-        <v>0.9358078402760391</v>
+        <v>0.9813030144665614</v>
       </c>
       <c r="F20">
-        <v>0.8836287961697044</v>
+        <v>1.000884976668997</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.016090045949251</v>
+        <v>1.039572022802576</v>
       </c>
       <c r="J20">
-        <v>0.9520428686403609</v>
+        <v>1.002208110339195</v>
       </c>
       <c r="K20">
-        <v>0.9715246022460846</v>
+        <v>1.017135808868704</v>
       </c>
       <c r="L20">
-        <v>0.9510818571814423</v>
+        <v>0.99568279288748</v>
       </c>
       <c r="M20">
-        <v>0.900081190302303</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.014912282658121</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.020415978311246</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.02326642443176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1383,49 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9031148339939377</v>
+        <v>0.964126507320749</v>
       </c>
       <c r="D21">
-        <v>0.9428921894768313</v>
+        <v>0.9965246860435181</v>
       </c>
       <c r="E21">
-        <v>0.920314131764901</v>
+        <v>0.9729691528461303</v>
       </c>
       <c r="F21">
-        <v>0.8600667564151717</v>
+        <v>0.9948420238463991</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.009656526767692</v>
+        <v>1.036711831669475</v>
       </c>
       <c r="J21">
-        <v>0.9373068163578627</v>
+        <v>0.9952046104797336</v>
       </c>
       <c r="K21">
-        <v>0.9590427490767794</v>
+        <v>1.011572199799096</v>
       </c>
       <c r="L21">
-        <v>0.9369806412718242</v>
+        <v>0.9884813899105818</v>
       </c>
       <c r="M21">
-        <v>0.8782919111358191</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.009921779033607</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.016424398003075</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.019335950976616</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1433,49 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8906935541877629</v>
+        <v>0.9580503626523205</v>
       </c>
       <c r="D22">
-        <v>0.9333953991352024</v>
+        <v>0.9922929843123834</v>
       </c>
       <c r="E22">
-        <v>0.909625680099944</v>
+        <v>0.9676630931672309</v>
       </c>
       <c r="F22">
-        <v>0.8436429248080023</v>
+        <v>0.9911217210135803</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.005193023972452</v>
+        <v>1.034872378614266</v>
       </c>
       <c r="J22">
-        <v>0.9271125255348817</v>
+        <v>0.9907489357634935</v>
       </c>
       <c r="K22">
-        <v>0.9504127854520256</v>
+        <v>1.008018680544714</v>
       </c>
       <c r="L22">
-        <v>0.9272285095471243</v>
+        <v>0.9839035710299342</v>
       </c>
       <c r="M22">
-        <v>0.8631109330092445</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.006871134209526</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.014009928404281</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.016809579542643</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1483,49 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8974002148350928</v>
+        <v>0.9612336752638285</v>
       </c>
       <c r="D23">
-        <v>0.9385201349741433</v>
+        <v>0.9945037496326969</v>
       </c>
       <c r="E23">
-        <v>0.9153947901448034</v>
+        <v>0.9704169763528543</v>
       </c>
       <c r="F23">
-        <v>0.8525265378640372</v>
+        <v>0.9930790127221147</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.007604535261551</v>
+        <v>1.035831744960792</v>
       </c>
       <c r="J23">
-        <v>0.9326178164204673</v>
+        <v>0.9930701216131508</v>
       </c>
       <c r="K23">
-        <v>0.9550726745602262</v>
+        <v>1.009869523835644</v>
       </c>
       <c r="L23">
-        <v>0.9324946354860214</v>
+        <v>0.9862711628814473</v>
       </c>
       <c r="M23">
-        <v>0.8713213164869574</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.008472810983848</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.015277595890892</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.018108400508405</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1533,49 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9213758629571592</v>
+        <v>0.9733611237296446</v>
       </c>
       <c r="D24">
-        <v>0.9568937763752323</v>
+        <v>1.002951692462102</v>
       </c>
       <c r="E24">
-        <v>0.9360540635005278</v>
+        <v>0.9809568673659748</v>
       </c>
       <c r="F24">
-        <v>0.8840011705534473</v>
+        <v>1.000574732433421</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.016191890798392</v>
+        <v>1.039464340983058</v>
       </c>
       <c r="J24">
-        <v>0.9522766565539063</v>
+        <v>1.001924632925261</v>
       </c>
       <c r="K24">
-        <v>0.9717226743570925</v>
+        <v>1.016927170597909</v>
       </c>
       <c r="L24">
-        <v>0.9513056006931292</v>
+        <v>0.9953268636354947</v>
       </c>
       <c r="M24">
-        <v>0.9004256030938486</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.014591762638043</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.020120495689626</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.023091025712038</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1583,46 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9455038186231658</v>
+        <v>0.9865018869938825</v>
       </c>
       <c r="D25">
-        <v>0.9754561827162859</v>
+        <v>1.012131806366431</v>
       </c>
       <c r="E25">
-        <v>0.9568907735382773</v>
+        <v>0.9923831097221867</v>
       </c>
       <c r="F25">
-        <v>0.9153181483625423</v>
+        <v>1.008802190565665</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.024757229012187</v>
+        <v>1.043331785553016</v>
       </c>
       <c r="J25">
-        <v>0.9720154682932067</v>
+        <v>1.011492214781178</v>
       </c>
       <c r="K25">
-        <v>0.9884478466182564</v>
+        <v>1.024544666214363</v>
       </c>
       <c r="L25">
-        <v>0.9701973222565349</v>
+        <v>1.005100830211877</v>
       </c>
       <c r="M25">
-        <v>0.9293905833322186</v>
+        <v>1.021265383470154</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.025402353467551</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.028474218333058</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_0/res_bus/vm_pu.xlsx
@@ -433,46 +433,49 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9962003282660739</v>
+        <v>1.044691285214539</v>
       </c>
       <c r="D2">
-        <v>1.018904648779628</v>
+        <v>1.056721181884263</v>
       </c>
       <c r="E2">
-        <v>1.000760036485551</v>
+        <v>1.052786480470854</v>
       </c>
       <c r="F2">
-        <v>1.014976242378774</v>
+        <v>1.0596730630399</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046110534147515</v>
+        <v>1.069199965651133</v>
       </c>
       <c r="J2">
-        <v>1.018495283862145</v>
+        <v>1.065612777086377</v>
       </c>
       <c r="K2">
-        <v>1.03010674754711</v>
+        <v>1.067443058160707</v>
       </c>
       <c r="L2">
-        <v>1.012208792938704</v>
+        <v>1.063556322105468</v>
       </c>
       <c r="M2">
-        <v>1.026230803887091</v>
+        <v>1.070359245188752</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503983</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.029332224170409</v>
+        <v>1.064256633923797</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.032358256542616</v>
+        <v>1.058757955504657</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -483,46 +486,49 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.003004161026313</v>
+        <v>1.049229226764859</v>
       </c>
       <c r="D3">
-        <v>1.023670557773149</v>
+        <v>1.059914297815174</v>
       </c>
       <c r="E3">
-        <v>1.006671856880184</v>
+        <v>1.056428272199958</v>
       </c>
       <c r="F3">
-        <v>1.019329875035834</v>
+        <v>1.063027474230281</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048034583933881</v>
+        <v>1.070746998014783</v>
       </c>
       <c r="J3">
-        <v>1.023413263266068</v>
+        <v>1.068462242032358</v>
       </c>
       <c r="K3">
-        <v>1.034009269204074</v>
+        <v>1.069833931992462</v>
       </c>
       <c r="L3">
-        <v>1.01722007592305</v>
+        <v>1.066386675578915</v>
       </c>
       <c r="M3">
-        <v>1.029721259161193</v>
+        <v>1.072912749883082</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.032094723683061</v>
+        <v>1.066277495257557</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.03511504608306</v>
+        <v>1.060445831239172</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -533,46 +539,49 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.007271212520554</v>
+        <v>1.05210889978014</v>
       </c>
       <c r="D4">
-        <v>1.026661538413549</v>
+        <v>1.061944008800841</v>
       </c>
       <c r="E4">
-        <v>1.010379937729063</v>
+        <v>1.058744054604136</v>
       </c>
       <c r="F4">
-        <v>1.022076850853497</v>
+        <v>1.065162504074011</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049224594788812</v>
+        <v>1.071719175168286</v>
       </c>
       <c r="J4">
-        <v>1.026490731199302</v>
+        <v>1.070267464100422</v>
       </c>
       <c r="K4">
-        <v>1.036448488442426</v>
+        <v>1.071348170874387</v>
       </c>
       <c r="L4">
-        <v>1.020354679699776</v>
+        <v>1.068181647515629</v>
       </c>
       <c r="M4">
-        <v>1.031915933825554</v>
+        <v>1.074533288852913</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.033831679946712</v>
+        <v>1.067559998361687</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.03684070942251</v>
+        <v>1.061517342569821</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -583,46 +592,49 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.009048863015001</v>
+        <v>1.053313158623201</v>
       </c>
       <c r="D5">
-        <v>1.027909971048913</v>
+        <v>1.062795993944267</v>
       </c>
       <c r="E5">
-        <v>1.011930516893671</v>
+        <v>1.059715300408436</v>
       </c>
       <c r="F5">
-        <v>1.02322200174586</v>
+        <v>1.066057878565101</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049718428893067</v>
+        <v>1.072125536711467</v>
       </c>
       <c r="J5">
-        <v>1.027774791860137</v>
+        <v>1.071024021335127</v>
       </c>
       <c r="K5">
-        <v>1.0374663669042</v>
+        <v>1.071984204351724</v>
       </c>
       <c r="L5">
-        <v>1.021666008519164</v>
+        <v>1.068934834800442</v>
       </c>
       <c r="M5">
-        <v>1.032830226493539</v>
+        <v>1.075213162743244</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.034555287696527</v>
+        <v>1.068098053533958</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.037567638485901</v>
+        <v>1.061974012398987</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -633,46 +645,49 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.009363238341723</v>
+        <v>1.053522829105546</v>
       </c>
       <c r="D6">
-        <v>1.028133206984309</v>
+        <v>1.062947272564274</v>
       </c>
       <c r="E6">
-        <v>1.012211689081995</v>
+        <v>1.059886518546495</v>
       </c>
       <c r="F6">
-        <v>1.02342099311866</v>
+        <v>1.066215095392132</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049808163374017</v>
+        <v>1.072198742695802</v>
       </c>
       <c r="J6">
-        <v>1.028006256297145</v>
+        <v>1.071158582033642</v>
       </c>
       <c r="K6">
-        <v>1.037650817444815</v>
+        <v>1.072099183366439</v>
       </c>
       <c r="L6">
-        <v>1.021906872372336</v>
+        <v>1.069069407080892</v>
       </c>
       <c r="M6">
-        <v>1.032990451177243</v>
+        <v>1.075334171449169</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.0346820958368</v>
+        <v>1.068193820315261</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.03770683322217</v>
+        <v>1.062063800635895</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -683,46 +698,49 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.007343474461415</v>
+        <v>1.052147345676791</v>
       </c>
       <c r="D7">
-        <v>1.026718762839706</v>
+        <v>1.061979002014344</v>
       </c>
       <c r="E7">
-        <v>1.010462143047635</v>
+        <v>1.058780665977984</v>
       </c>
       <c r="F7">
-        <v>1.022113130222128</v>
+        <v>1.065194436791232</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049251819088909</v>
+        <v>1.07173915451466</v>
       </c>
       <c r="J7">
-        <v>1.026555158019518</v>
+        <v>1.070299414092688</v>
       </c>
       <c r="K7">
-        <v>1.036502168873073</v>
+        <v>1.071380030014514</v>
       </c>
       <c r="L7">
-        <v>1.020432958429609</v>
+        <v>1.068215094102051</v>
       </c>
       <c r="M7">
-        <v>1.031948883989431</v>
+        <v>1.074562132817533</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.033857758035911</v>
+        <v>1.067582825608922</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.036898856348228</v>
+        <v>1.061559407841775</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -733,46 +751,49 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9985934070562132</v>
+        <v>1.046265582281854</v>
       </c>
       <c r="D8">
-        <v>1.020588368166239</v>
+        <v>1.057838073631564</v>
       </c>
       <c r="E8">
-        <v>1.002865556830742</v>
+        <v>1.054056356869161</v>
       </c>
       <c r="F8">
-        <v>1.016490573822984</v>
+        <v>1.060839810326569</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046799474356154</v>
+        <v>1.069747394089097</v>
       </c>
       <c r="J8">
-        <v>1.02024249041196</v>
+        <v>1.066611843651057</v>
       </c>
       <c r="K8">
-        <v>1.031496495703758</v>
+        <v>1.068287695377871</v>
       </c>
       <c r="L8">
-        <v>1.014006851737242</v>
+        <v>1.064550695370881</v>
       </c>
       <c r="M8">
-        <v>1.027451708496032</v>
+        <v>1.071254218957088</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.030298502916456</v>
+        <v>1.064964922964468</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.033364021226814</v>
+        <v>1.059377443416572</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -783,46 +804,49 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9819670815515904</v>
+        <v>1.035408152946062</v>
       </c>
       <c r="D9">
-        <v>1.008951733659535</v>
+        <v>1.050210732525536</v>
       </c>
       <c r="E9">
-        <v>0.9884022034075312</v>
+        <v>1.045365826300614</v>
       </c>
       <c r="F9">
-        <v>1.005967622473028</v>
+        <v>1.052848705307898</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041996184712274</v>
+        <v>1.065985137471263</v>
       </c>
       <c r="J9">
-        <v>1.008173103253151</v>
+        <v>1.059769662992266</v>
       </c>
       <c r="K9">
-        <v>1.021901225809749</v>
+        <v>1.06253851121427</v>
       </c>
       <c r="L9">
-        <v>1.001686291798209</v>
+        <v>1.057763386390038</v>
       </c>
       <c r="M9">
-        <v>1.018964615505891</v>
+        <v>1.065138830782551</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.023581408232709</v>
+        <v>1.060125145508573</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.026576140397414</v>
+        <v>1.055309485572865</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -833,46 +857,49 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9704285820242204</v>
+        <v>1.027958986602855</v>
       </c>
       <c r="D10">
-        <v>1.000909432613732</v>
+        <v>1.045029494106389</v>
       </c>
       <c r="E10">
-        <v>0.9784905634863736</v>
+        <v>1.039479185401416</v>
       </c>
       <c r="F10">
-        <v>0.9989752426915282</v>
+        <v>1.04746699520295</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038611707961555</v>
+        <v>1.063388374146624</v>
       </c>
       <c r="J10">
-        <v>0.9998666549941455</v>
+        <v>1.055105607663354</v>
       </c>
       <c r="K10">
-        <v>1.015262286364947</v>
+        <v>1.058630689554645</v>
       </c>
       <c r="L10">
-        <v>0.9932593496087434</v>
+        <v>1.053170429895937</v>
       </c>
       <c r="M10">
-        <v>1.013363024130805</v>
+        <v>1.061029030994001</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.019200672746587</v>
+        <v>1.056922905529251</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.021898900736218</v>
+        <v>1.052562944412993</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -883,46 +910,49 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9686344660565845</v>
+        <v>1.025654570123288</v>
       </c>
       <c r="D11">
-        <v>0.9997366345656006</v>
+        <v>1.043657675388006</v>
       </c>
       <c r="E11">
-        <v>0.9778972928817642</v>
+        <v>1.038033398186204</v>
       </c>
       <c r="F11">
-        <v>0.9995723354401777</v>
+        <v>1.046310527643749</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038304213346102</v>
+        <v>1.06282102544253</v>
       </c>
       <c r="J11">
-        <v>0.9993729161888802</v>
+        <v>1.053997707512855</v>
       </c>
       <c r="K11">
-        <v>1.014663519282524</v>
+        <v>1.057800703714033</v>
       </c>
       <c r="L11">
-        <v>0.9932484283426443</v>
+        <v>1.052272017567465</v>
       </c>
       <c r="M11">
-        <v>1.014502321397373</v>
+        <v>1.060408927500387</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.020547747081716</v>
+        <v>1.056859321827907</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.021508982793565</v>
+        <v>1.052008238881213</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -933,46 +963,49 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9691110581778271</v>
+        <v>1.025151009598803</v>
       </c>
       <c r="D12">
-        <v>1.000116117529558</v>
+        <v>1.04347187223681</v>
       </c>
       <c r="E12">
-        <v>0.9789981893337589</v>
+        <v>1.037911929136127</v>
       </c>
       <c r="F12">
-        <v>1.001035408646428</v>
+        <v>1.046319143084778</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038600007289763</v>
+        <v>1.062819212993415</v>
       </c>
       <c r="J12">
-        <v>1.000282769012228</v>
+        <v>1.05392780030179</v>
       </c>
       <c r="K12">
-        <v>1.01524109324888</v>
+        <v>1.05781106276611</v>
       </c>
       <c r="L12">
-        <v>0.9945391234950561</v>
+        <v>1.052347138650288</v>
       </c>
       <c r="M12">
-        <v>1.016142798709137</v>
+        <v>1.060609672107934</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.022177457261113</v>
+        <v>1.05733833308668</v>
       </c>
       <c r="Q12">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R12">
-        <v>1.021917360207492</v>
+        <v>1.052015562761968</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -983,46 +1016,49 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.971408767553556</v>
+        <v>1.026032230889998</v>
       </c>
       <c r="D13">
-        <v>1.001752005323857</v>
+        <v>1.044218901210528</v>
       </c>
       <c r="E13">
-        <v>0.9815296382438228</v>
+        <v>1.038834582485278</v>
       </c>
       <c r="F13">
-        <v>1.003298293793421</v>
+        <v>1.047260110937687</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039404224524112</v>
+        <v>1.063277321000044</v>
       </c>
       <c r="J13">
-        <v>1.002377208261721</v>
+        <v>1.054685560478357</v>
       </c>
       <c r="K13">
-        <v>1.016801795098355</v>
+        <v>1.058503932099671</v>
       </c>
       <c r="L13">
-        <v>0.996974211507722</v>
+        <v>1.053212098485555</v>
       </c>
       <c r="M13">
-        <v>1.018318752804788</v>
+        <v>1.061493446110412</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.024178534060723</v>
+        <v>1.058309118549274</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.023018328866932</v>
+        <v>1.052502987654191</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1033,46 +1069,49 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9737893523969251</v>
+        <v>1.027273822429175</v>
       </c>
       <c r="D14">
-        <v>1.003430716609744</v>
+        <v>1.045162888608416</v>
       </c>
       <c r="E14">
-        <v>0.9838953464480117</v>
+        <v>1.039949833229236</v>
       </c>
       <c r="F14">
-        <v>1.005197286719173</v>
+        <v>1.048338880862069</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040179449836307</v>
+        <v>1.063804938125048</v>
       </c>
       <c r="J14">
-        <v>1.004331970169383</v>
+        <v>1.055588503059346</v>
       </c>
       <c r="K14">
-        <v>1.018305107705501</v>
+        <v>1.059296479031648</v>
       </c>
       <c r="L14">
-        <v>0.9991448777651637</v>
+        <v>1.054171764905001</v>
       </c>
       <c r="M14">
-        <v>1.02003869207298</v>
+        <v>1.06241920539146</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.025713391174276</v>
+        <v>1.059211670985938</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.024082700046772</v>
+        <v>1.053064712323979</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1083,46 +1122,49 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9748106159212746</v>
+        <v>1.027889969164213</v>
       </c>
       <c r="D15">
-        <v>1.004147680371704</v>
+        <v>1.045609591470594</v>
       </c>
       <c r="E15">
-        <v>0.984834939342797</v>
+        <v>1.040464420253383</v>
       </c>
       <c r="F15">
-        <v>1.00589840601592</v>
+        <v>1.04882279998543</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040496611247889</v>
+        <v>1.064042410948731</v>
       </c>
       <c r="J15">
-        <v>1.005112500729795</v>
+        <v>1.0560024615432</v>
       </c>
       <c r="K15">
-        <v>1.018920303917442</v>
+        <v>1.05965231210122</v>
       </c>
       <c r="L15">
-        <v>0.9999750734911618</v>
+        <v>1.054593637627039</v>
       </c>
       <c r="M15">
-        <v>1.020638623504127</v>
+        <v>1.062812056777144</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.026225477483153</v>
+        <v>1.0595592108945</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.02452363392924</v>
+        <v>1.05332202007966</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1133,46 +1175,49 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9791551916293029</v>
+        <v>1.030879852899691</v>
       </c>
       <c r="D16">
-        <v>1.007170366854927</v>
+        <v>1.047666474586748</v>
       </c>
       <c r="E16">
-        <v>0.9884185528380645</v>
+        <v>1.042782703184709</v>
       </c>
       <c r="F16">
-        <v>1.008409425349487</v>
+        <v>1.050944127906405</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041758533441246</v>
+        <v>1.065072636248717</v>
       </c>
       <c r="J16">
-        <v>1.008141441491683</v>
+        <v>1.057846643589456</v>
       </c>
       <c r="K16">
-        <v>1.021375052850669</v>
+        <v>1.061191005048795</v>
       </c>
       <c r="L16">
-        <v>1.002962807347425</v>
+        <v>1.056385663410897</v>
       </c>
       <c r="M16">
-        <v>1.022592250413594</v>
+        <v>1.064416545181329</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.027730513060009</v>
+        <v>1.06078925173462</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.026262469935392</v>
+        <v>1.054412968992406</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1183,46 +1228,49 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9812794494905571</v>
+        <v>1.032526117358824</v>
       </c>
       <c r="D17">
-        <v>1.008637753111312</v>
+        <v>1.048752854448075</v>
       </c>
       <c r="E17">
-        <v>0.9899743482451404</v>
+        <v>1.043980884798859</v>
       </c>
       <c r="F17">
-        <v>1.009362306791539</v>
+        <v>1.052005477679506</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042330764313175</v>
+        <v>1.065585199853249</v>
       </c>
       <c r="J17">
-        <v>1.009476538273532</v>
+        <v>1.058789299366722</v>
       </c>
       <c r="K17">
-        <v>1.022496007499148</v>
+        <v>1.061956855226962</v>
       </c>
       <c r="L17">
-        <v>1.004160477029909</v>
+        <v>1.057259342431003</v>
       </c>
       <c r="M17">
-        <v>1.023208148313934</v>
+        <v>1.06515922207156</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.028086999996124</v>
+        <v>1.061249240815706</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.027057657957854</v>
+        <v>1.054956951500903</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1230,49 +1278,52 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9815385919274398</v>
+        <v>1.033134879756493</v>
       </c>
       <c r="D18">
-        <v>1.008787229201811</v>
+        <v>1.049063755671187</v>
       </c>
       <c r="E18">
-        <v>0.9897467454632243</v>
+        <v>1.044276533224818</v>
       </c>
       <c r="F18">
-        <v>1.0088426936728</v>
+        <v>1.052196203855986</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042306064882273</v>
+        <v>1.065674985663863</v>
       </c>
       <c r="J18">
-        <v>1.009317660648678</v>
+        <v>1.059002000050391</v>
       </c>
       <c r="K18">
-        <v>1.022455988101414</v>
+        <v>1.062086115324249</v>
       </c>
       <c r="L18">
-        <v>1.003744842060312</v>
+        <v>1.057372388550609</v>
       </c>
       <c r="M18">
-        <v>1.02251051664583</v>
+        <v>1.065170933922818</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.027295002442295</v>
+        <v>1.061024959270353</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.027017581560257</v>
+        <v>1.055036986804237</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1283,46 +1334,49 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9800739958892358</v>
+        <v>1.032835236013981</v>
       </c>
       <c r="D19">
-        <v>1.007725589163131</v>
+        <v>1.048705437032629</v>
       </c>
       <c r="E19">
-        <v>0.9878954689688225</v>
+        <v>1.043787583597622</v>
       </c>
       <c r="F19">
-        <v>1.006873608924709</v>
+        <v>1.051624135327367</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041734362940576</v>
+        <v>1.065404194679172</v>
       </c>
       <c r="J19">
-        <v>1.007772340405542</v>
+        <v>1.058584966414532</v>
       </c>
       <c r="K19">
-        <v>1.021348452879237</v>
+        <v>1.061672942090156</v>
       </c>
       <c r="L19">
-        <v>1.001860780345328</v>
+        <v>1.056830267473085</v>
       </c>
       <c r="M19">
-        <v>1.020510827805284</v>
+        <v>1.064547445947167</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.025383511255533</v>
+        <v>1.06021288218729</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.026240982561825</v>
+        <v>1.054751114101888</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1333,46 +1387,49 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9736210371323776</v>
+        <v>1.029958765958471</v>
       </c>
       <c r="D20">
-        <v>1.003148089874901</v>
+        <v>1.046440846186957</v>
       </c>
       <c r="E20">
-        <v>0.9813030144665614</v>
+        <v>1.041077087990643</v>
       </c>
       <c r="F20">
-        <v>1.000884976668997</v>
+        <v>1.04892233931352</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039572022802576</v>
+        <v>1.064108265527131</v>
       </c>
       <c r="J20">
-        <v>1.002208110339195</v>
+        <v>1.056381749640741</v>
       </c>
       <c r="K20">
-        <v>1.017135808868704</v>
+        <v>1.059713449682332</v>
       </c>
       <c r="L20">
-        <v>0.99568279288748</v>
+        <v>1.054434156065779</v>
       </c>
       <c r="M20">
-        <v>1.014912282658121</v>
+        <v>1.062156239576423</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.020415978311246</v>
+        <v>1.057804633246278</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.02326642443176</v>
+        <v>1.053369579977364</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1383,46 +1440,49 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.964126507320749</v>
+        <v>1.024157119069723</v>
       </c>
       <c r="D21">
-        <v>0.9965246860435181</v>
+        <v>1.042368454618456</v>
       </c>
       <c r="E21">
-        <v>0.9729691528461303</v>
+        <v>1.03643232631098</v>
       </c>
       <c r="F21">
-        <v>0.9948420238463991</v>
+        <v>1.044647499291178</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036711831669475</v>
+        <v>1.062020615660138</v>
       </c>
       <c r="J21">
-        <v>0.9952046104797336</v>
+        <v>1.052678446054533</v>
       </c>
       <c r="K21">
-        <v>1.011572199799096</v>
+        <v>1.056589270963668</v>
       </c>
       <c r="L21">
-        <v>0.9884813899105818</v>
+        <v>1.050754857354855</v>
       </c>
       <c r="M21">
-        <v>1.009921779033607</v>
+        <v>1.058829660813086</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.016424398003075</v>
+        <v>1.055131975522652</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.019335950976616</v>
+        <v>1.051163933532194</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1433,46 +1493,49 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9580503626523205</v>
+        <v>1.020460343829163</v>
       </c>
       <c r="D22">
-        <v>0.9922929843123834</v>
+        <v>1.039784218587586</v>
       </c>
       <c r="E22">
-        <v>0.9676630931672309</v>
+        <v>1.033494297489483</v>
       </c>
       <c r="F22">
-        <v>0.9911217210135803</v>
+        <v>1.041959484597732</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034872378614266</v>
+        <v>1.060688336044047</v>
       </c>
       <c r="J22">
-        <v>0.9907489357634935</v>
+        <v>1.050328059705922</v>
       </c>
       <c r="K22">
-        <v>1.008018680544714</v>
+        <v>1.054606699915585</v>
       </c>
       <c r="L22">
-        <v>0.9839035710299342</v>
+        <v>1.048430199781802</v>
       </c>
       <c r="M22">
-        <v>1.006871134209526</v>
+        <v>1.056743154751871</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.014009928404281</v>
+        <v>1.053480676721606</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.016809579542643</v>
+        <v>1.049749015214585</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1483,46 +1546,49 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9612336752638285</v>
+        <v>1.022404396469769</v>
       </c>
       <c r="D23">
-        <v>0.9945037496326969</v>
+        <v>1.041135042403305</v>
       </c>
       <c r="E23">
-        <v>0.9704169763528543</v>
+        <v>1.035031868516022</v>
       </c>
       <c r="F23">
-        <v>0.9930790127221147</v>
+        <v>1.043368350671845</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035831744960792</v>
+        <v>1.061383411015324</v>
       </c>
       <c r="J23">
-        <v>0.9930701216131508</v>
+        <v>1.051556534061165</v>
       </c>
       <c r="K23">
-        <v>1.009869523835644</v>
+        <v>1.055638406120789</v>
       </c>
       <c r="L23">
-        <v>0.9862711628814473</v>
+        <v>1.049642373508376</v>
       </c>
       <c r="M23">
-        <v>1.008472810983848</v>
+        <v>1.057832913973328</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.015277595890892</v>
+        <v>1.054343132415356</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.018108400508405</v>
+        <v>1.05046901151794</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -1533,46 +1599,49 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9733611237296446</v>
+        <v>1.029922894943396</v>
       </c>
       <c r="D24">
-        <v>1.002951692462102</v>
+        <v>1.046383243713121</v>
       </c>
       <c r="E24">
-        <v>0.9809568673659748</v>
+        <v>1.041004303835279</v>
       </c>
       <c r="F24">
-        <v>1.000574732433421</v>
+        <v>1.048842143638312</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039464340983058</v>
+        <v>1.06406279468776</v>
       </c>
       <c r="J24">
-        <v>1.001924632925261</v>
+        <v>1.056315827563831</v>
       </c>
       <c r="K24">
-        <v>1.016927170597909</v>
+        <v>1.059642000130828</v>
       </c>
       <c r="L24">
-        <v>0.9953268636354947</v>
+        <v>1.054347669584276</v>
       </c>
       <c r="M24">
-        <v>1.014591762638043</v>
+        <v>1.062062591541628</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.020120495689626</v>
+        <v>1.057690568552295</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.023091025712038</v>
+        <v>1.053292287248805</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -1583,46 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9865018869938825</v>
+        <v>1.038310412542981</v>
       </c>
       <c r="D25">
-        <v>1.012131806366431</v>
+        <v>1.052258525125732</v>
       </c>
       <c r="E25">
-        <v>0.9923831097221867</v>
+        <v>1.047694145228689</v>
       </c>
       <c r="F25">
-        <v>1.008802190565665</v>
+        <v>1.054984160221016</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043331785553016</v>
+        <v>1.067010372073398</v>
       </c>
       <c r="J25">
-        <v>1.011492214781178</v>
+        <v>1.061613856692151</v>
       </c>
       <c r="K25">
-        <v>1.024544666214363</v>
+        <v>1.064096356674567</v>
       </c>
       <c r="L25">
-        <v>1.005100830211877</v>
+        <v>1.059594586461979</v>
       </c>
       <c r="M25">
-        <v>1.021265383470154</v>
+        <v>1.066784929213407</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.025402353467551</v>
+        <v>1.061427886713089</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.028474218333058</v>
+        <v>1.056438803988103</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_0/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.044691285214539</v>
+        <v>1.04099444727104</v>
       </c>
       <c r="D2">
-        <v>1.056721181884263</v>
+        <v>1.052336555278391</v>
       </c>
       <c r="E2">
-        <v>1.052786480470854</v>
+        <v>1.049798657829579</v>
       </c>
       <c r="F2">
-        <v>1.0596730630399</v>
+        <v>1.056494652989886</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.069199965651133</v>
+        <v>1.066610780588209</v>
       </c>
       <c r="J2">
-        <v>1.065612777086377</v>
+        <v>1.062014530366048</v>
       </c>
       <c r="K2">
-        <v>1.067443058160707</v>
+        <v>1.063111910075454</v>
       </c>
       <c r="L2">
-        <v>1.063556322105468</v>
+        <v>1.060605220922195</v>
       </c>
       <c r="M2">
-        <v>1.070359245188752</v>
+        <v>1.067219278689472</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.064256633923797</v>
+        <v>1.061771635512656</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.058757955504657</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.055704161955329</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.028227280546115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.049229226764859</v>
+        <v>1.045263317748396</v>
       </c>
       <c r="D3">
-        <v>1.059914297815174</v>
+        <v>1.055222533979315</v>
       </c>
       <c r="E3">
-        <v>1.056428272199958</v>
+        <v>1.053170293251834</v>
       </c>
       <c r="F3">
-        <v>1.063027474230281</v>
+        <v>1.059605709941971</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.070746998014783</v>
+        <v>1.06796982615131</v>
       </c>
       <c r="J3">
-        <v>1.068462242032358</v>
+        <v>1.064591757326079</v>
       </c>
       <c r="K3">
-        <v>1.069833931992462</v>
+        <v>1.065194420149551</v>
       </c>
       <c r="L3">
-        <v>1.066386675578915</v>
+        <v>1.063165215399549</v>
       </c>
       <c r="M3">
-        <v>1.072912749883082</v>
+        <v>1.069528763367941</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.066277495257557</v>
+        <v>1.063599383728838</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.060445831239172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.057173735158163</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.02872578487531</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.05210889978014</v>
+        <v>1.04797483430812</v>
       </c>
       <c r="D4">
-        <v>1.061944008800841</v>
+        <v>1.057059296524655</v>
       </c>
       <c r="E4">
-        <v>1.058744054604136</v>
+        <v>1.055317409764441</v>
       </c>
       <c r="F4">
-        <v>1.065162504074011</v>
+        <v>1.061588381551434</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.071719175168286</v>
+        <v>1.068823776329289</v>
       </c>
       <c r="J4">
-        <v>1.070267464100422</v>
+        <v>1.066226155476975</v>
       </c>
       <c r="K4">
-        <v>1.071348170874387</v>
+        <v>1.066514590019199</v>
       </c>
       <c r="L4">
-        <v>1.068181647515629</v>
+        <v>1.064791076732447</v>
       </c>
       <c r="M4">
-        <v>1.074533288852913</v>
+        <v>1.070996246807637</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.067559998361687</v>
+        <v>1.064760761910664</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.061517342569821</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.058108116701628</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.029039424846439</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.053313158623201</v>
+        <v>1.049108720217536</v>
       </c>
       <c r="D5">
-        <v>1.062795993944267</v>
+        <v>1.0578305592379</v>
       </c>
       <c r="E5">
-        <v>1.059715300408436</v>
+        <v>1.056217842043923</v>
       </c>
       <c r="F5">
-        <v>1.066057878565101</v>
+        <v>1.062419921569287</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.072125536711467</v>
+        <v>1.069180602684357</v>
       </c>
       <c r="J5">
-        <v>1.071024021335127</v>
+        <v>1.066911108301677</v>
       </c>
       <c r="K5">
-        <v>1.071984204351724</v>
+        <v>1.067069367010062</v>
       </c>
       <c r="L5">
-        <v>1.068934834800442</v>
+        <v>1.065473208066892</v>
       </c>
       <c r="M5">
-        <v>1.075213162743244</v>
+        <v>1.071611943965815</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.068098053533958</v>
+        <v>1.065248029076125</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.061974012398987</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.058508053703287</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.029172083929712</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.053522829105546</v>
+        <v>1.049305388309374</v>
       </c>
       <c r="D6">
-        <v>1.062947272564274</v>
+        <v>1.05796721767157</v>
       </c>
       <c r="E6">
-        <v>1.059886518546495</v>
+        <v>1.056375640741428</v>
       </c>
       <c r="F6">
-        <v>1.066215095392132</v>
+        <v>1.062565321852804</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.072198742695802</v>
+        <v>1.069244784476019</v>
       </c>
       <c r="J6">
-        <v>1.071158582033642</v>
+        <v>1.067032478107132</v>
       </c>
       <c r="K6">
-        <v>1.072099183366439</v>
+        <v>1.06716964274468</v>
       </c>
       <c r="L6">
-        <v>1.069069407080892</v>
+        <v>1.065594332078313</v>
       </c>
       <c r="M6">
-        <v>1.075334171449169</v>
+        <v>1.071721086497596</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.068193820315261</v>
+        <v>1.065334405230397</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.062063800635895</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.05858832350734</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.029197768499712</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.052147345676791</v>
+        <v>1.048008837708322</v>
       </c>
       <c r="D7">
-        <v>1.061979002014344</v>
+        <v>1.057090048655519</v>
       </c>
       <c r="E7">
-        <v>1.058780665977984</v>
+        <v>1.055348614657757</v>
       </c>
       <c r="F7">
-        <v>1.065194436791232</v>
+        <v>1.061616233486753</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.07173915451466</v>
+        <v>1.068841013250714</v>
       </c>
       <c r="J7">
-        <v>1.070299414092688</v>
+        <v>1.066253720609447</v>
       </c>
       <c r="K7">
-        <v>1.071380030014514</v>
+        <v>1.066542231660454</v>
       </c>
       <c r="L7">
-        <v>1.068215094102051</v>
+        <v>1.064819158960439</v>
       </c>
       <c r="M7">
-        <v>1.074562132817533</v>
+        <v>1.071021037510364</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.067582825608922</v>
+        <v>1.064780381457185</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.061559407841775</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.058149217917372</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.029050774722431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.046265582281854</v>
+        <v>1.042471733547708</v>
       </c>
       <c r="D8">
-        <v>1.057838073631564</v>
+        <v>1.053344097599602</v>
       </c>
       <c r="E8">
-        <v>1.054056356869161</v>
+        <v>1.050969821332801</v>
       </c>
       <c r="F8">
-        <v>1.060839810326569</v>
+        <v>1.057573651760021</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.069747394089097</v>
+        <v>1.06709111106771</v>
       </c>
       <c r="J8">
-        <v>1.066611843651057</v>
+        <v>1.062915771563478</v>
       </c>
       <c r="K8">
-        <v>1.068287695377871</v>
+        <v>1.063846902716143</v>
       </c>
       <c r="L8">
-        <v>1.064550695370881</v>
+        <v>1.061500952228971</v>
       </c>
       <c r="M8">
-        <v>1.071254218957088</v>
+        <v>1.068026387276833</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.064964922964468</v>
+        <v>1.062410389438291</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.059377443416572</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.056248414608968</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.028409874701042</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.035408152946062</v>
+        <v>1.032276892772428</v>
       </c>
       <c r="D9">
-        <v>1.050210732525536</v>
+        <v>1.04646552216073</v>
       </c>
       <c r="E9">
-        <v>1.045365826300614</v>
+        <v>1.042945997616075</v>
       </c>
       <c r="F9">
-        <v>1.052848705307898</v>
+        <v>1.05017980925789</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.065985137471263</v>
+        <v>1.063786539337789</v>
       </c>
       <c r="J9">
-        <v>1.059769662992266</v>
+        <v>1.056739185428755</v>
       </c>
       <c r="K9">
-        <v>1.06253851121427</v>
+        <v>1.05884717144838</v>
       </c>
       <c r="L9">
-        <v>1.057763386390038</v>
+        <v>1.055378718532642</v>
       </c>
       <c r="M9">
-        <v>1.065138830782551</v>
+        <v>1.06250803075116</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.060125145508573</v>
+        <v>1.058043095588462</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.055309485572865</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.052710058490389</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.027194333307543</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.027958986602855</v>
+        <v>1.025280363740364</v>
       </c>
       <c r="D10">
-        <v>1.045029494106389</v>
+        <v>1.041793769865667</v>
       </c>
       <c r="E10">
-        <v>1.039479185401416</v>
+        <v>1.037508687456731</v>
       </c>
       <c r="F10">
-        <v>1.04746699520295</v>
+        <v>1.045203565406056</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.063388374146624</v>
+        <v>1.061499722742349</v>
       </c>
       <c r="J10">
-        <v>1.055105607663354</v>
+        <v>1.052525668351149</v>
       </c>
       <c r="K10">
-        <v>1.058630689554645</v>
+        <v>1.055447312391681</v>
       </c>
       <c r="L10">
-        <v>1.053170429895937</v>
+        <v>1.051232199607638</v>
       </c>
       <c r="M10">
-        <v>1.061029030994001</v>
+        <v>1.058801956542414</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.056922905529251</v>
+        <v>1.055160467715006</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.052562944412993</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.050324354321059</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.02637612539685</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.025654570123288</v>
+        <v>1.022965109599504</v>
       </c>
       <c r="D11">
-        <v>1.043657675388006</v>
+        <v>1.040448334629676</v>
       </c>
       <c r="E11">
-        <v>1.038033398186204</v>
+        <v>1.036004294669215</v>
       </c>
       <c r="F11">
-        <v>1.046310527643749</v>
+        <v>1.044035959499369</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.06282102544253</v>
+        <v>1.060942048378518</v>
       </c>
       <c r="J11">
-        <v>1.053997707512855</v>
+        <v>1.051412765936607</v>
       </c>
       <c r="K11">
-        <v>1.057800703714033</v>
+        <v>1.054645745914458</v>
       </c>
       <c r="L11">
-        <v>1.052272017567465</v>
+        <v>1.050277730375322</v>
       </c>
       <c r="M11">
-        <v>1.060408927500387</v>
+        <v>1.058172606134216</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.056859321827907</v>
+        <v>1.055090420702282</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.052008238881213</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.049792980384961</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.026340274594531</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.025151009598803</v>
+        <v>1.022377990452873</v>
       </c>
       <c r="D12">
-        <v>1.04347187223681</v>
+        <v>1.040197818873105</v>
       </c>
       <c r="E12">
-        <v>1.037911929136127</v>
+        <v>1.035763675375959</v>
       </c>
       <c r="F12">
-        <v>1.046319143084778</v>
+        <v>1.043968879082984</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.062819212993415</v>
+        <v>1.060896260328847</v>
       </c>
       <c r="J12">
-        <v>1.05392780030179</v>
+        <v>1.051264567150029</v>
       </c>
       <c r="K12">
-        <v>1.05781106276611</v>
+        <v>1.054593390838441</v>
       </c>
       <c r="L12">
-        <v>1.052347138650288</v>
+        <v>1.050236342378397</v>
       </c>
       <c r="M12">
-        <v>1.060609672107934</v>
+        <v>1.058299550766613</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.05733833308668</v>
+        <v>1.05551165339091</v>
       </c>
       <c r="Q12">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.052015562761968</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.049755965738302</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.026444401956705</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.026032230889998</v>
+        <v>1.023110110435771</v>
       </c>
       <c r="D13">
-        <v>1.044218901210528</v>
+        <v>1.040801810672196</v>
       </c>
       <c r="E13">
-        <v>1.038834582485278</v>
+        <v>1.036507927330414</v>
       </c>
       <c r="F13">
-        <v>1.047260110937687</v>
+        <v>1.044775810391587</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.063277321000044</v>
+        <v>1.061263689378905</v>
       </c>
       <c r="J13">
-        <v>1.054685560478357</v>
+        <v>1.051878451981708</v>
       </c>
       <c r="K13">
-        <v>1.058503932099671</v>
+        <v>1.055145392645608</v>
       </c>
       <c r="L13">
-        <v>1.053212098485555</v>
+        <v>1.050925792576982</v>
       </c>
       <c r="M13">
-        <v>1.061493446110412</v>
+        <v>1.059051345642125</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.058309118549274</v>
+        <v>1.056378549101211</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.052502987654191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.050143546435942</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.026678119098336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.027273822429175</v>
+        <v>1.024219965745682</v>
       </c>
       <c r="D14">
-        <v>1.045162888608416</v>
+        <v>1.041612102536436</v>
       </c>
       <c r="E14">
-        <v>1.039949833229236</v>
+        <v>1.037474176003305</v>
       </c>
       <c r="F14">
-        <v>1.048338880862069</v>
+        <v>1.045736313137864</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.063804938125048</v>
+        <v>1.061707900268453</v>
       </c>
       <c r="J14">
-        <v>1.055588503059346</v>
+        <v>1.052653025341381</v>
       </c>
       <c r="K14">
-        <v>1.059296479031648</v>
+        <v>1.055805741167209</v>
       </c>
       <c r="L14">
-        <v>1.054171764905001</v>
+        <v>1.051738462407605</v>
       </c>
       <c r="M14">
-        <v>1.06241920539146</v>
+        <v>1.059860255555525</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.059211670985938</v>
+        <v>1.057188993834927</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.053064712323979</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.050611939720457</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.026900027464065</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.027889969164213</v>
+        <v>1.024787468336061</v>
       </c>
       <c r="D15">
-        <v>1.045609591470594</v>
+        <v>1.042006966579823</v>
       </c>
       <c r="E15">
-        <v>1.040464420253383</v>
+        <v>1.037936791194404</v>
       </c>
       <c r="F15">
-        <v>1.04882279998543</v>
+        <v>1.04617662961125</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.064042410948731</v>
+        <v>1.061913445975964</v>
       </c>
       <c r="J15">
-        <v>1.0560024615432</v>
+        <v>1.05301913880433</v>
       </c>
       <c r="K15">
-        <v>1.05965231210122</v>
+        <v>1.056110136183321</v>
       </c>
       <c r="L15">
-        <v>1.054593637627039</v>
+        <v>1.052108906791379</v>
       </c>
       <c r="M15">
-        <v>1.062812056777144</v>
+        <v>1.060209884680036</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.01017436097146</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.0595592108945</v>
+        <v>1.057502422338534</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.05332202007966</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.050833454502009</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.026987596139835</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.030879852899691</v>
+        <v>1.027618187455891</v>
       </c>
       <c r="D16">
-        <v>1.047666474586748</v>
+        <v>1.043878410411409</v>
       </c>
       <c r="E16">
-        <v>1.042782703184709</v>
+        <v>1.040104882814951</v>
       </c>
       <c r="F16">
-        <v>1.050944127906405</v>
+        <v>1.048155860725517</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.065072636248717</v>
+        <v>1.062831930343576</v>
       </c>
       <c r="J16">
-        <v>1.057846643589456</v>
+        <v>1.054703902304763</v>
       </c>
       <c r="K16">
-        <v>1.061191005048795</v>
+        <v>1.057463692452695</v>
       </c>
       <c r="L16">
-        <v>1.056385663410897</v>
+        <v>1.053751248447696</v>
       </c>
       <c r="M16">
-        <v>1.064416545181329</v>
+        <v>1.061672583643902</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.06078925173462</v>
+        <v>1.058620329531036</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.054412968992406</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.051793810749217</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.027298093351549</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.032526117358824</v>
+        <v>1.029209757379322</v>
       </c>
       <c r="D17">
-        <v>1.048752854448075</v>
+        <v>1.044891270228456</v>
       </c>
       <c r="E17">
-        <v>1.043980884798859</v>
+        <v>1.041263710951964</v>
       </c>
       <c r="F17">
-        <v>1.052005477679506</v>
+        <v>1.049168642584568</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.065585199853249</v>
+        <v>1.063301552866386</v>
       </c>
       <c r="J17">
-        <v>1.058789299366722</v>
+        <v>1.055589944884167</v>
       </c>
       <c r="K17">
-        <v>1.061956855226962</v>
+        <v>1.058155456012073</v>
       </c>
       <c r="L17">
-        <v>1.057259342431003</v>
+        <v>1.054584954917828</v>
       </c>
       <c r="M17">
-        <v>1.06515922207156</v>
+        <v>1.062366196817487</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.061249240815706</v>
+        <v>1.05904132203779</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.054956951500903</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.052285662524275</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.027419728263699</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.033134879756493</v>
+        <v>1.029857300405565</v>
       </c>
       <c r="D18">
-        <v>1.049063755671187</v>
+        <v>1.045226313659468</v>
       </c>
       <c r="E18">
-        <v>1.044276533224818</v>
+        <v>1.041622619553788</v>
       </c>
       <c r="F18">
-        <v>1.052196203855986</v>
+        <v>1.049394715614809</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.065674985663863</v>
+        <v>1.063408997227302</v>
       </c>
       <c r="J18">
-        <v>1.059002000050391</v>
+        <v>1.055837926100071</v>
       </c>
       <c r="K18">
-        <v>1.062086115324249</v>
+        <v>1.058307519172066</v>
       </c>
       <c r="L18">
-        <v>1.057372388550609</v>
+        <v>1.054759590933892</v>
       </c>
       <c r="M18">
-        <v>1.065170933922818</v>
+        <v>1.062412025816665</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.061024959270353</v>
+        <v>1.058843570143774</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.055036986804237</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.052380673664655</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.027373624377123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.032835236013981</v>
+        <v>1.029675878573609</v>
       </c>
       <c r="D19">
-        <v>1.048705437032629</v>
+        <v>1.044975962232761</v>
       </c>
       <c r="E19">
-        <v>1.043787583597622</v>
+        <v>1.041282761093383</v>
       </c>
       <c r="F19">
-        <v>1.051624135327367</v>
+        <v>1.048929181310969</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.065404194679172</v>
+        <v>1.063207790131938</v>
       </c>
       <c r="J19">
-        <v>1.058584966414532</v>
+        <v>1.055534456786336</v>
       </c>
       <c r="K19">
-        <v>1.061672942090156</v>
+        <v>1.058000396738937</v>
       </c>
       <c r="L19">
-        <v>1.056830267473085</v>
+        <v>1.054364084589698</v>
       </c>
       <c r="M19">
-        <v>1.064547445947167</v>
+        <v>1.061893287376848</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624638</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.06021288218729</v>
+        <v>1.058113655390409</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.054751114101888</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.052170410469881</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.027191408607753</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.029958765958471</v>
+        <v>1.02714826802773</v>
       </c>
       <c r="D20">
-        <v>1.046440846186957</v>
+        <v>1.043060277875438</v>
       </c>
       <c r="E20">
-        <v>1.041077087990643</v>
+        <v>1.03897228888986</v>
       </c>
       <c r="F20">
-        <v>1.04892233931352</v>
+        <v>1.046540782845721</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.064108265527131</v>
+        <v>1.062131005365979</v>
       </c>
       <c r="J20">
-        <v>1.056381749640741</v>
+        <v>1.053671344124269</v>
       </c>
       <c r="K20">
-        <v>1.059713449682332</v>
+        <v>1.056385986550408</v>
       </c>
       <c r="L20">
-        <v>1.054434156065779</v>
+        <v>1.052362807142704</v>
       </c>
       <c r="M20">
-        <v>1.062156239576423</v>
+        <v>1.059811823117925</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.057804633246278</v>
+        <v>1.055949313789799</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.053369579977364</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.05103324749158</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.02661743810453</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024157119069723</v>
+        <v>1.021734958902893</v>
       </c>
       <c r="D21">
-        <v>1.042368454618456</v>
+        <v>1.039414560629217</v>
       </c>
       <c r="E21">
-        <v>1.03643232631098</v>
+        <v>1.034721640385946</v>
       </c>
       <c r="F21">
-        <v>1.044647499291178</v>
+        <v>1.0426128793317</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.062020615660138</v>
+        <v>1.060303872124075</v>
       </c>
       <c r="J21">
-        <v>1.052678446054533</v>
+        <v>1.050351242397613</v>
       </c>
       <c r="K21">
-        <v>1.056589270963668</v>
+        <v>1.053685803853876</v>
       </c>
       <c r="L21">
-        <v>1.050754857354855</v>
+        <v>1.049073764099025</v>
       </c>
       <c r="M21">
-        <v>1.058829660813086</v>
+        <v>1.056829539549882</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.055131975522652</v>
+        <v>1.053549043291527</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.051163933532194</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.049127706828226</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.025932036409849</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.020460343829163</v>
+        <v>1.018285217923914</v>
       </c>
       <c r="D22">
-        <v>1.039784218587586</v>
+        <v>1.037100654009623</v>
       </c>
       <c r="E22">
-        <v>1.033494297489483</v>
+        <v>1.032032668847505</v>
       </c>
       <c r="F22">
-        <v>1.041959484597732</v>
+        <v>1.040144771632046</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.060688336044047</v>
+        <v>1.059136367658266</v>
       </c>
       <c r="J22">
-        <v>1.050328059705922</v>
+        <v>1.048243318710594</v>
       </c>
       <c r="K22">
-        <v>1.054606699915585</v>
+        <v>1.051971307143848</v>
       </c>
       <c r="L22">
-        <v>1.048430199781802</v>
+        <v>1.046995185155084</v>
       </c>
       <c r="M22">
-        <v>1.056743154751871</v>
+        <v>1.05496080538521</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.053480676721606</v>
+        <v>1.052070090196247</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.049749015214585</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.047901016232522</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.025497766609696</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.022404396469769</v>
+        <v>1.020102161855589</v>
       </c>
       <c r="D23">
-        <v>1.041135042403305</v>
+        <v>1.038311566415021</v>
       </c>
       <c r="E23">
-        <v>1.035031868516022</v>
+        <v>1.033443330188029</v>
       </c>
       <c r="F23">
-        <v>1.043368350671845</v>
+        <v>1.041440663638461</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.061383411015324</v>
+        <v>1.059746374013142</v>
       </c>
       <c r="J23">
-        <v>1.051556534061165</v>
+        <v>1.049347080942413</v>
       </c>
       <c r="K23">
-        <v>1.055638406120789</v>
+        <v>1.052864293404062</v>
       </c>
       <c r="L23">
-        <v>1.049642373508376</v>
+        <v>1.048081991313183</v>
       </c>
       <c r="M23">
-        <v>1.057832913973328</v>
+        <v>1.055938704916671</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.054343132415356</v>
+        <v>1.052844019545182</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.05046901151794</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.048521983926783</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.025719228475167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.029922894943396</v>
+        <v>1.02713314919689</v>
       </c>
       <c r="D24">
-        <v>1.046383243713121</v>
+        <v>1.043020905089205</v>
       </c>
       <c r="E24">
-        <v>1.041004303835279</v>
+        <v>1.038926172074951</v>
       </c>
       <c r="F24">
-        <v>1.048842143638312</v>
+        <v>1.046479372264941</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.06406279468776</v>
+        <v>1.062097476101568</v>
       </c>
       <c r="J24">
-        <v>1.056315827563831</v>
+        <v>1.053625303609998</v>
       </c>
       <c r="K24">
-        <v>1.059642000130828</v>
+        <v>1.056332419346998</v>
       </c>
       <c r="L24">
-        <v>1.054347669584276</v>
+        <v>1.052302526930034</v>
       </c>
       <c r="M24">
-        <v>1.062062591541628</v>
+        <v>1.059736626721064</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.057690568552295</v>
+        <v>1.055849763698382</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.053292287248805</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.050965906223967</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.026582356505554</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.038310412542981</v>
+        <v>1.034994625375447</v>
       </c>
       <c r="D25">
-        <v>1.052258525125732</v>
+        <v>1.048307553777618</v>
       </c>
       <c r="E25">
-        <v>1.047694145228689</v>
+        <v>1.045086863461217</v>
       </c>
       <c r="F25">
-        <v>1.054984160221016</v>
+        <v>1.052149209918908</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.067010372073398</v>
+        <v>1.064685846250609</v>
       </c>
       <c r="J25">
-        <v>1.061613856692151</v>
+        <v>1.058399066928114</v>
       </c>
       <c r="K25">
-        <v>1.064096356674567</v>
+        <v>1.060199540909298</v>
       </c>
       <c r="L25">
-        <v>1.059594586461979</v>
+        <v>1.057023378378087</v>
       </c>
       <c r="M25">
-        <v>1.066784929213407</v>
+        <v>1.063988532952827</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.061427886713089</v>
+        <v>1.059214785292768</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.056438803988103</v>
+        <v>1.053696925433776</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.02753337923791</v>
       </c>
     </row>
   </sheetData>
